--- a/Keyword_Results.xlsx
+++ b/Keyword_Results.xlsx
@@ -461,7 +461,7 @@
     <t xml:space="preserve">https://www.manpower.ch/de</t>
   </si>
   <si>
-    <t xml:space="preserve">":{"value":""},"mandatoryConsentText":{"value":""},"</t>
+    <t xml:space="preserve">}","params":{},"fields":{"mandatoryConsentText":{"value":""},"</t>
   </si>
   <si>
     <t xml:space="preserve">-895c-46d73197b61f","name":"Assessments and trainings","displayName</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">":"Jobofferten Fest- und Temporärstellen | Bewerbungsunterlagen</t>
   </si>
   <si>
-    <t xml:space="preserve">","fields":{"title":{"value":"Temporäreinsätze"},"image":{"value</t>
+    <t xml:space="preserve">value":""},"title":{"value":"Temporäreinsätze"},"image":{"value</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.markritter.ch/</t>
@@ -7037,21 +7037,19 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B614" t="s">
-        <v>12</v>
-      </c>
-      <c r="C614" t="s">
-        <v>12</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C614"/>
     </row>
     <row r="615">
       <c r="A615" t="s">
         <v>184</v>
       </c>
       <c r="B615" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C615"/>
     </row>
@@ -7060,7 +7058,7 @@
         <v>184</v>
       </c>
       <c r="B616" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C616"/>
     </row>
@@ -7069,7 +7067,7 @@
         <v>184</v>
       </c>
       <c r="B617" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C617"/>
     </row>
@@ -7078,27 +7076,27 @@
         <v>184</v>
       </c>
       <c r="B618" t="s">
-        <v>7</v>
-      </c>
-      <c r="C618"/>
+        <v>8</v>
+      </c>
+      <c r="C618" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
         <v>184</v>
       </c>
       <c r="B619" t="s">
-        <v>8</v>
-      </c>
-      <c r="C619" t="s">
-        <v>185</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C619"/>
     </row>
     <row r="620">
       <c r="A620" t="s">
         <v>184</v>
       </c>
       <c r="B620" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C620"/>
     </row>
@@ -7107,36 +7105,36 @@
         <v>184</v>
       </c>
       <c r="B621" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C621"/>
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B622" t="s">
-        <v>12</v>
-      </c>
-      <c r="C622"/>
+        <v>4</v>
+      </c>
+      <c r="C622" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="s">
         <v>186</v>
       </c>
       <c r="B623" t="s">
-        <v>4</v>
-      </c>
-      <c r="C623" t="s">
-        <v>187</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C623"/>
     </row>
     <row r="624">
       <c r="A624" t="s">
         <v>186</v>
       </c>
       <c r="B624" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C624"/>
     </row>
@@ -7145,7 +7143,7 @@
         <v>186</v>
       </c>
       <c r="B625" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C625"/>
     </row>
@@ -7154,7 +7152,7 @@
         <v>186</v>
       </c>
       <c r="B626" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C626"/>
     </row>
@@ -7163,7 +7161,7 @@
         <v>186</v>
       </c>
       <c r="B627" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C627"/>
     </row>
@@ -7172,7 +7170,7 @@
         <v>186</v>
       </c>
       <c r="B628" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C628"/>
     </row>
@@ -7181,27 +7179,27 @@
         <v>186</v>
       </c>
       <c r="B629" t="s">
-        <v>10</v>
-      </c>
-      <c r="C629"/>
+        <v>12</v>
+      </c>
+      <c r="C629" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B630" t="s">
-        <v>12</v>
-      </c>
-      <c r="C630" t="s">
-        <v>188</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C630"/>
     </row>
     <row r="631">
       <c r="A631" t="s">
         <v>189</v>
       </c>
       <c r="B631" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C631"/>
     </row>
@@ -7210,7 +7208,7 @@
         <v>189</v>
       </c>
       <c r="B632" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C632"/>
     </row>
@@ -7219,7 +7217,7 @@
         <v>189</v>
       </c>
       <c r="B633" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C633"/>
     </row>
@@ -7228,7 +7226,7 @@
         <v>189</v>
       </c>
       <c r="B634" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C634"/>
     </row>
@@ -7237,7 +7235,7 @@
         <v>189</v>
       </c>
       <c r="B635" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C635"/>
     </row>
@@ -7246,7 +7244,7 @@
         <v>189</v>
       </c>
       <c r="B636" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C636"/>
     </row>
@@ -7255,36 +7253,36 @@
         <v>189</v>
       </c>
       <c r="B637" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C637"/>
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B638" t="s">
-        <v>12</v>
-      </c>
-      <c r="C638"/>
+        <v>4</v>
+      </c>
+      <c r="C638" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
         <v>190</v>
       </c>
       <c r="B639" t="s">
-        <v>4</v>
-      </c>
-      <c r="C639" t="s">
-        <v>191</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C639"/>
     </row>
     <row r="640">
       <c r="A640" t="s">
         <v>190</v>
       </c>
       <c r="B640" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C640"/>
     </row>
@@ -7293,7 +7291,7 @@
         <v>190</v>
       </c>
       <c r="B641" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C641"/>
     </row>
@@ -7302,7 +7300,7 @@
         <v>190</v>
       </c>
       <c r="B642" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C642"/>
     </row>
@@ -7311,7 +7309,7 @@
         <v>190</v>
       </c>
       <c r="B643" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C643"/>
     </row>
@@ -7320,38 +7318,38 @@
         <v>190</v>
       </c>
       <c r="B644" t="s">
-        <v>9</v>
-      </c>
-      <c r="C644"/>
+        <v>10</v>
+      </c>
+      <c r="C644" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="s">
         <v>190</v>
       </c>
       <c r="B645" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C645" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B646" t="s">
-        <v>12</v>
-      </c>
-      <c r="C646" t="s">
-        <v>193</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C646"/>
     </row>
     <row r="647">
       <c r="A647" t="s">
         <v>194</v>
       </c>
       <c r="B647" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C647"/>
     </row>
@@ -7360,7 +7358,7 @@
         <v>194</v>
       </c>
       <c r="B648" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C648"/>
     </row>
@@ -7369,7 +7367,7 @@
         <v>194</v>
       </c>
       <c r="B649" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C649"/>
     </row>
@@ -7378,7 +7376,7 @@
         <v>194</v>
       </c>
       <c r="B650" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C650"/>
     </row>
@@ -7387,7 +7385,7 @@
         <v>194</v>
       </c>
       <c r="B651" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C651"/>
     </row>
@@ -7396,7 +7394,7 @@
         <v>194</v>
       </c>
       <c r="B652" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C652"/>
     </row>
@@ -7405,16 +7403,16 @@
         <v>194</v>
       </c>
       <c r="B653" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C653"/>
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B654" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C654"/>
     </row>
@@ -7423,7 +7421,7 @@
         <v>195</v>
       </c>
       <c r="B655" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C655"/>
     </row>
@@ -7432,7 +7430,7 @@
         <v>195</v>
       </c>
       <c r="B656" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C656"/>
     </row>
@@ -7441,7 +7439,7 @@
         <v>195</v>
       </c>
       <c r="B657" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C657"/>
     </row>
@@ -7450,9 +7448,11 @@
         <v>195</v>
       </c>
       <c r="B658" t="s">
-        <v>7</v>
-      </c>
-      <c r="C658"/>
+        <v>8</v>
+      </c>
+      <c r="C658" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="s">
@@ -7473,7 +7473,7 @@
         <v>8</v>
       </c>
       <c r="C660" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
     </row>
     <row r="661">
@@ -7481,18 +7481,16 @@
         <v>195</v>
       </c>
       <c r="B661" t="s">
-        <v>8</v>
-      </c>
-      <c r="C661" t="s">
-        <v>196</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C661"/>
     </row>
     <row r="662">
       <c r="A662" t="s">
         <v>195</v>
       </c>
       <c r="B662" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C662"/>
     </row>
@@ -7501,16 +7499,16 @@
         <v>195</v>
       </c>
       <c r="B663" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C663"/>
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B664" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C664"/>
     </row>
@@ -7519,7 +7517,7 @@
         <v>197</v>
       </c>
       <c r="B665" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C665"/>
     </row>
@@ -7528,7 +7526,7 @@
         <v>197</v>
       </c>
       <c r="B666" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C666"/>
     </row>
@@ -7537,7 +7535,7 @@
         <v>197</v>
       </c>
       <c r="B667" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C667"/>
     </row>
@@ -7546,7 +7544,7 @@
         <v>197</v>
       </c>
       <c r="B668" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C668"/>
     </row>
@@ -7555,7 +7553,7 @@
         <v>197</v>
       </c>
       <c r="B669" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C669"/>
     </row>
@@ -7564,7 +7562,7 @@
         <v>197</v>
       </c>
       <c r="B670" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C670"/>
     </row>
@@ -7573,16 +7571,16 @@
         <v>197</v>
       </c>
       <c r="B671" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C671"/>
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B672" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C672"/>
     </row>
@@ -7591,7 +7589,7 @@
         <v>198</v>
       </c>
       <c r="B673" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C673"/>
     </row>
@@ -7600,7 +7598,7 @@
         <v>198</v>
       </c>
       <c r="B674" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C674"/>
     </row>
@@ -7609,7 +7607,7 @@
         <v>198</v>
       </c>
       <c r="B675" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C675"/>
     </row>
@@ -7618,7 +7616,7 @@
         <v>198</v>
       </c>
       <c r="B676" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C676"/>
     </row>
@@ -7627,7 +7625,7 @@
         <v>198</v>
       </c>
       <c r="B677" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C677"/>
     </row>
@@ -7636,7 +7634,7 @@
         <v>198</v>
       </c>
       <c r="B678" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C678"/>
     </row>
@@ -7645,16 +7643,16 @@
         <v>198</v>
       </c>
       <c r="B679" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C679"/>
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B680" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C680"/>
     </row>
@@ -7663,7 +7661,7 @@
         <v>199</v>
       </c>
       <c r="B681" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C681"/>
     </row>
@@ -7672,7 +7670,7 @@
         <v>199</v>
       </c>
       <c r="B682" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C682"/>
     </row>
@@ -7681,7 +7679,7 @@
         <v>199</v>
       </c>
       <c r="B683" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C683"/>
     </row>
@@ -7690,9 +7688,11 @@
         <v>199</v>
       </c>
       <c r="B684" t="s">
-        <v>7</v>
-      </c>
-      <c r="C684"/>
+        <v>8</v>
+      </c>
+      <c r="C684" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="s">
@@ -7702,7 +7702,7 @@
         <v>8</v>
       </c>
       <c r="C685" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="686">
@@ -7710,18 +7710,16 @@
         <v>199</v>
       </c>
       <c r="B686" t="s">
-        <v>8</v>
-      </c>
-      <c r="C686" t="s">
-        <v>201</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C686"/>
     </row>
     <row r="687">
       <c r="A687" t="s">
         <v>199</v>
       </c>
       <c r="B687" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C687"/>
     </row>
@@ -7730,16 +7728,16 @@
         <v>199</v>
       </c>
       <c r="B688" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C688"/>
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B689" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C689"/>
     </row>
@@ -7748,7 +7746,7 @@
         <v>202</v>
       </c>
       <c r="B690" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C690"/>
     </row>
@@ -7757,7 +7755,7 @@
         <v>202</v>
       </c>
       <c r="B691" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C691"/>
     </row>
@@ -7766,9 +7764,11 @@
         <v>202</v>
       </c>
       <c r="B692" t="s">
-        <v>6</v>
-      </c>
-      <c r="C692"/>
+        <v>7</v>
+      </c>
+      <c r="C692" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="s">
@@ -7778,7 +7778,7 @@
         <v>7</v>
       </c>
       <c r="C693" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="694">
@@ -7789,7 +7789,7 @@
         <v>7</v>
       </c>
       <c r="C694" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="695">
@@ -7797,18 +7797,16 @@
         <v>202</v>
       </c>
       <c r="B695" t="s">
-        <v>7</v>
-      </c>
-      <c r="C695" t="s">
-        <v>205</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C695"/>
     </row>
     <row r="696">
       <c r="A696" t="s">
         <v>202</v>
       </c>
       <c r="B696" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C696"/>
     </row>
@@ -7817,7 +7815,7 @@
         <v>202</v>
       </c>
       <c r="B697" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C697"/>
     </row>
@@ -7826,36 +7824,36 @@
         <v>202</v>
       </c>
       <c r="B698" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C698"/>
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B699" t="s">
-        <v>12</v>
-      </c>
-      <c r="C699"/>
+        <v>4</v>
+      </c>
+      <c r="C699" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="s">
         <v>206</v>
       </c>
       <c r="B700" t="s">
-        <v>4</v>
-      </c>
-      <c r="C700" t="s">
-        <v>207</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C700"/>
     </row>
     <row r="701">
       <c r="A701" t="s">
         <v>206</v>
       </c>
       <c r="B701" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C701"/>
     </row>
@@ -7864,7 +7862,7 @@
         <v>206</v>
       </c>
       <c r="B702" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C702"/>
     </row>
@@ -7873,9 +7871,11 @@
         <v>206</v>
       </c>
       <c r="B703" t="s">
-        <v>7</v>
-      </c>
-      <c r="C703"/>
+        <v>8</v>
+      </c>
+      <c r="C703" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="s">
@@ -7885,7 +7885,7 @@
         <v>8</v>
       </c>
       <c r="C704" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="705">
@@ -7893,18 +7893,16 @@
         <v>206</v>
       </c>
       <c r="B705" t="s">
-        <v>8</v>
-      </c>
-      <c r="C705" t="s">
-        <v>209</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C705"/>
     </row>
     <row r="706">
       <c r="A706" t="s">
         <v>206</v>
       </c>
       <c r="B706" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C706"/>
     </row>
@@ -7913,16 +7911,16 @@
         <v>206</v>
       </c>
       <c r="B707" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C707"/>
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B708" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C708"/>
     </row>
@@ -7931,7 +7929,7 @@
         <v>210</v>
       </c>
       <c r="B709" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C709"/>
     </row>
@@ -7940,7 +7938,7 @@
         <v>210</v>
       </c>
       <c r="B710" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C710"/>
     </row>
@@ -7949,7 +7947,7 @@
         <v>210</v>
       </c>
       <c r="B711" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C711"/>
     </row>
@@ -7958,27 +7956,27 @@
         <v>210</v>
       </c>
       <c r="B712" t="s">
-        <v>7</v>
-      </c>
-      <c r="C712"/>
+        <v>8</v>
+      </c>
+      <c r="C712" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="s">
         <v>210</v>
       </c>
       <c r="B713" t="s">
-        <v>8</v>
-      </c>
-      <c r="C713" t="s">
-        <v>211</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C713"/>
     </row>
     <row r="714">
       <c r="A714" t="s">
         <v>210</v>
       </c>
       <c r="B714" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C714"/>
     </row>
@@ -7987,16 +7985,16 @@
         <v>210</v>
       </c>
       <c r="B715" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C715"/>
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B716" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C716"/>
     </row>
@@ -8005,7 +8003,7 @@
         <v>212</v>
       </c>
       <c r="B717" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C717"/>
     </row>
@@ -8014,7 +8012,7 @@
         <v>212</v>
       </c>
       <c r="B718" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C718"/>
     </row>
@@ -8023,7 +8021,7 @@
         <v>212</v>
       </c>
       <c r="B719" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C719"/>
     </row>
@@ -8032,7 +8030,7 @@
         <v>212</v>
       </c>
       <c r="B720" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C720"/>
     </row>
@@ -8041,7 +8039,7 @@
         <v>212</v>
       </c>
       <c r="B721" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C721"/>
     </row>
@@ -8050,7 +8048,7 @@
         <v>212</v>
       </c>
       <c r="B722" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C722"/>
     </row>
@@ -8059,16 +8057,16 @@
         <v>212</v>
       </c>
       <c r="B723" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C723"/>
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B724" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C724"/>
     </row>
@@ -8077,7 +8075,7 @@
         <v>213</v>
       </c>
       <c r="B725" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C725"/>
     </row>
@@ -8086,7 +8084,7 @@
         <v>213</v>
       </c>
       <c r="B726" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C726"/>
     </row>
@@ -8095,7 +8093,7 @@
         <v>213</v>
       </c>
       <c r="B727" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C727"/>
     </row>
@@ -8104,7 +8102,7 @@
         <v>213</v>
       </c>
       <c r="B728" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C728"/>
     </row>
@@ -8113,7 +8111,7 @@
         <v>213</v>
       </c>
       <c r="B729" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C729"/>
     </row>
@@ -8122,9 +8120,11 @@
         <v>213</v>
       </c>
       <c r="B730" t="s">
-        <v>9</v>
-      </c>
-      <c r="C730"/>
+        <v>10</v>
+      </c>
+      <c r="C730" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="s">
@@ -8134,7 +8134,7 @@
         <v>10</v>
       </c>
       <c r="C731" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="732">
@@ -8142,10 +8142,10 @@
         <v>213</v>
       </c>
       <c r="B732" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C732" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="733">
@@ -8156,7 +8156,7 @@
         <v>12</v>
       </c>
       <c r="C733" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="734">
@@ -8167,7 +8167,7 @@
         <v>12</v>
       </c>
       <c r="C734" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="735">
@@ -8178,7 +8178,7 @@
         <v>12</v>
       </c>
       <c r="C735" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="736">
@@ -8189,7 +8189,7 @@
         <v>12</v>
       </c>
       <c r="C736" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="737">
@@ -8200,18 +8200,18 @@
         <v>12</v>
       </c>
       <c r="C737" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B738" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C738" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="739">
@@ -8219,18 +8219,16 @@
         <v>222</v>
       </c>
       <c r="B739" t="s">
-        <v>4</v>
-      </c>
-      <c r="C739" t="s">
-        <v>223</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C739"/>
     </row>
     <row r="740">
       <c r="A740" t="s">
         <v>222</v>
       </c>
       <c r="B740" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C740"/>
     </row>
@@ -8239,7 +8237,7 @@
         <v>222</v>
       </c>
       <c r="B741" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C741"/>
     </row>
@@ -8248,7 +8246,7 @@
         <v>222</v>
       </c>
       <c r="B742" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C742"/>
     </row>
@@ -8257,7 +8255,7 @@
         <v>222</v>
       </c>
       <c r="B743" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C743"/>
     </row>
@@ -8266,7 +8264,7 @@
         <v>222</v>
       </c>
       <c r="B744" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C744"/>
     </row>
@@ -8275,24 +8273,24 @@
         <v>222</v>
       </c>
       <c r="B745" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C745"/>
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>222</v>
-      </c>
-      <c r="B746" t="s">
-        <v>12</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B746"/>
       <c r="C746"/>
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>224</v>
-      </c>
-      <c r="B747"/>
+        <v>225</v>
+      </c>
+      <c r="B747" t="s">
+        <v>4</v>
+      </c>
       <c r="C747"/>
     </row>
     <row r="748">
@@ -8300,7 +8298,7 @@
         <v>225</v>
       </c>
       <c r="B748" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C748"/>
     </row>
@@ -8309,7 +8307,7 @@
         <v>225</v>
       </c>
       <c r="B749" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C749"/>
     </row>
@@ -8318,7 +8316,7 @@
         <v>225</v>
       </c>
       <c r="B750" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C750"/>
     </row>
@@ -8327,7 +8325,7 @@
         <v>225</v>
       </c>
       <c r="B751" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C751"/>
     </row>
@@ -8336,7 +8334,7 @@
         <v>225</v>
       </c>
       <c r="B752" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C752"/>
     </row>
@@ -8345,7 +8343,7 @@
         <v>225</v>
       </c>
       <c r="B753" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C753"/>
     </row>
@@ -8354,18 +8352,20 @@
         <v>225</v>
       </c>
       <c r="B754" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C754"/>
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B755" t="s">
-        <v>12</v>
-      </c>
-      <c r="C755"/>
+        <v>4</v>
+      </c>
+      <c r="C755" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="s">
@@ -8375,7 +8375,7 @@
         <v>4</v>
       </c>
       <c r="C756" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="757">
@@ -8383,18 +8383,16 @@
         <v>226</v>
       </c>
       <c r="B757" t="s">
-        <v>4</v>
-      </c>
-      <c r="C757" t="s">
-        <v>228</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C757"/>
     </row>
     <row r="758">
       <c r="A758" t="s">
         <v>226</v>
       </c>
       <c r="B758" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C758"/>
     </row>
@@ -8403,7 +8401,7 @@
         <v>226</v>
       </c>
       <c r="B759" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C759"/>
     </row>
@@ -8412,9 +8410,11 @@
         <v>226</v>
       </c>
       <c r="B760" t="s">
-        <v>7</v>
-      </c>
-      <c r="C760"/>
+        <v>8</v>
+      </c>
+      <c r="C760" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="s">
@@ -8424,7 +8424,7 @@
         <v>8</v>
       </c>
       <c r="C761" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="762">
@@ -8432,18 +8432,16 @@
         <v>226</v>
       </c>
       <c r="B762" t="s">
-        <v>8</v>
-      </c>
-      <c r="C762" t="s">
-        <v>230</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C762"/>
     </row>
     <row r="763">
       <c r="A763" t="s">
         <v>226</v>
       </c>
       <c r="B763" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C763"/>
     </row>
@@ -8452,9 +8450,11 @@
         <v>226</v>
       </c>
       <c r="B764" t="s">
-        <v>10</v>
-      </c>
-      <c r="C764"/>
+        <v>12</v>
+      </c>
+      <c r="C764" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="s">
@@ -8464,26 +8464,24 @@
         <v>12</v>
       </c>
       <c r="C765" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B766" t="s">
-        <v>12</v>
-      </c>
-      <c r="C766" t="s">
-        <v>232</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C766"/>
     </row>
     <row r="767">
       <c r="A767" t="s">
         <v>233</v>
       </c>
       <c r="B767" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C767"/>
     </row>
@@ -8492,7 +8490,7 @@
         <v>233</v>
       </c>
       <c r="B768" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C768"/>
     </row>
@@ -8501,7 +8499,7 @@
         <v>233</v>
       </c>
       <c r="B769" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C769"/>
     </row>
@@ -8510,9 +8508,11 @@
         <v>233</v>
       </c>
       <c r="B770" t="s">
-        <v>7</v>
-      </c>
-      <c r="C770"/>
+        <v>8</v>
+      </c>
+      <c r="C770" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="s">
@@ -8522,7 +8522,7 @@
         <v>8</v>
       </c>
       <c r="C771" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="772">
@@ -8530,18 +8530,16 @@
         <v>233</v>
       </c>
       <c r="B772" t="s">
-        <v>8</v>
-      </c>
-      <c r="C772" t="s">
-        <v>235</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C772"/>
     </row>
     <row r="773">
       <c r="A773" t="s">
         <v>233</v>
       </c>
       <c r="B773" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C773"/>
     </row>
@@ -8550,27 +8548,27 @@
         <v>233</v>
       </c>
       <c r="B774" t="s">
-        <v>10</v>
-      </c>
-      <c r="C774"/>
+        <v>12</v>
+      </c>
+      <c r="C774" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B775" t="s">
-        <v>12</v>
-      </c>
-      <c r="C775" t="s">
-        <v>236</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C775"/>
     </row>
     <row r="776">
       <c r="A776" t="s">
         <v>237</v>
       </c>
       <c r="B776" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C776"/>
     </row>
@@ -8579,7 +8577,7 @@
         <v>237</v>
       </c>
       <c r="B777" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C777"/>
     </row>
@@ -8588,7 +8586,7 @@
         <v>237</v>
       </c>
       <c r="B778" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C778"/>
     </row>
@@ -8597,9 +8595,11 @@
         <v>237</v>
       </c>
       <c r="B779" t="s">
-        <v>7</v>
-      </c>
-      <c r="C779"/>
+        <v>8</v>
+      </c>
+      <c r="C779" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="s">
@@ -8620,7 +8620,7 @@
         <v>8</v>
       </c>
       <c r="C781" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="782">
@@ -8631,7 +8631,7 @@
         <v>8</v>
       </c>
       <c r="C782" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="783">
@@ -8642,7 +8642,7 @@
         <v>8</v>
       </c>
       <c r="C783" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="784">
@@ -8650,10 +8650,10 @@
         <v>237</v>
       </c>
       <c r="B784" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C784" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="785">
@@ -8664,7 +8664,7 @@
         <v>9</v>
       </c>
       <c r="C785" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="786">
@@ -8675,7 +8675,7 @@
         <v>9</v>
       </c>
       <c r="C786" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="787">
@@ -8686,7 +8686,7 @@
         <v>9</v>
       </c>
       <c r="C787" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="788">
@@ -8697,7 +8697,7 @@
         <v>9</v>
       </c>
       <c r="C788" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="789">
@@ -8705,27 +8705,25 @@
         <v>237</v>
       </c>
       <c r="B789" t="s">
-        <v>9</v>
-      </c>
-      <c r="C789" t="s">
-        <v>246</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C789"/>
     </row>
     <row r="790">
       <c r="A790" t="s">
         <v>237</v>
       </c>
       <c r="B790" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C790"/>
     </row>
     <row r="791">
       <c r="A791" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B791" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C791"/>
     </row>
@@ -8734,7 +8732,7 @@
         <v>247</v>
       </c>
       <c r="B792" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C792"/>
     </row>
@@ -8743,7 +8741,7 @@
         <v>247</v>
       </c>
       <c r="B793" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C793"/>
     </row>
@@ -8752,7 +8750,7 @@
         <v>247</v>
       </c>
       <c r="B794" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C794"/>
     </row>
@@ -8761,7 +8759,7 @@
         <v>247</v>
       </c>
       <c r="B795" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C795"/>
     </row>
@@ -8770,7 +8768,7 @@
         <v>247</v>
       </c>
       <c r="B796" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C796"/>
     </row>
@@ -8779,7 +8777,7 @@
         <v>247</v>
       </c>
       <c r="B797" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C797"/>
     </row>
@@ -8788,16 +8786,16 @@
         <v>247</v>
       </c>
       <c r="B798" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C798"/>
     </row>
     <row r="799">
       <c r="A799" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B799" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C799"/>
     </row>
@@ -8806,7 +8804,7 @@
         <v>248</v>
       </c>
       <c r="B800" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C800"/>
     </row>
@@ -8815,7 +8813,7 @@
         <v>248</v>
       </c>
       <c r="B801" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C801"/>
     </row>
@@ -8824,7 +8822,7 @@
         <v>248</v>
       </c>
       <c r="B802" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C802"/>
     </row>
@@ -8833,7 +8831,7 @@
         <v>248</v>
       </c>
       <c r="B803" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C803"/>
     </row>
@@ -8842,7 +8840,7 @@
         <v>248</v>
       </c>
       <c r="B804" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C804"/>
     </row>
@@ -8851,7 +8849,7 @@
         <v>248</v>
       </c>
       <c r="B805" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C805"/>
     </row>
@@ -8860,16 +8858,16 @@
         <v>248</v>
       </c>
       <c r="B806" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C806"/>
     </row>
     <row r="807">
       <c r="A807" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B807" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C807"/>
     </row>
@@ -8878,7 +8876,7 @@
         <v>249</v>
       </c>
       <c r="B808" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C808"/>
     </row>
@@ -8887,7 +8885,7 @@
         <v>249</v>
       </c>
       <c r="B809" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C809"/>
     </row>
@@ -8896,7 +8894,7 @@
         <v>249</v>
       </c>
       <c r="B810" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C810"/>
     </row>
@@ -8905,7 +8903,7 @@
         <v>249</v>
       </c>
       <c r="B811" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C811"/>
     </row>
@@ -8914,7 +8912,7 @@
         <v>249</v>
       </c>
       <c r="B812" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C812"/>
     </row>
@@ -8923,7 +8921,7 @@
         <v>249</v>
       </c>
       <c r="B813" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C813"/>
     </row>
@@ -8932,9 +8930,11 @@
         <v>249</v>
       </c>
       <c r="B814" t="s">
-        <v>10</v>
-      </c>
-      <c r="C814"/>
+        <v>12</v>
+      </c>
+      <c r="C814" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" t="s">
@@ -8944,7 +8944,7 @@
         <v>12</v>
       </c>
       <c r="C815" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="816">
@@ -8955,7 +8955,7 @@
         <v>12</v>
       </c>
       <c r="C816" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="817">
@@ -8966,7 +8966,7 @@
         <v>12</v>
       </c>
       <c r="C817" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="818">
@@ -8977,7 +8977,7 @@
         <v>12</v>
       </c>
       <c r="C818" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="819">
@@ -8988,7 +8988,7 @@
         <v>12</v>
       </c>
       <c r="C819" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="820">
@@ -8999,7 +8999,7 @@
         <v>12</v>
       </c>
       <c r="C820" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="821">
@@ -9015,21 +9015,19 @@
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B822" t="s">
-        <v>12</v>
-      </c>
-      <c r="C822" t="s">
-        <v>256</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C822"/>
     </row>
     <row r="823">
       <c r="A823" t="s">
         <v>257</v>
       </c>
       <c r="B823" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C823"/>
     </row>
@@ -9038,7 +9036,7 @@
         <v>257</v>
       </c>
       <c r="B824" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C824"/>
     </row>
@@ -9047,7 +9045,7 @@
         <v>257</v>
       </c>
       <c r="B825" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C825"/>
     </row>
@@ -9056,9 +9054,11 @@
         <v>257</v>
       </c>
       <c r="B826" t="s">
-        <v>7</v>
-      </c>
-      <c r="C826"/>
+        <v>8</v>
+      </c>
+      <c r="C826" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" t="s">
@@ -9068,7 +9068,7 @@
         <v>8</v>
       </c>
       <c r="C827" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="828">
@@ -9076,18 +9076,16 @@
         <v>257</v>
       </c>
       <c r="B828" t="s">
-        <v>8</v>
-      </c>
-      <c r="C828" t="s">
-        <v>259</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C828"/>
     </row>
     <row r="829">
       <c r="A829" t="s">
         <v>257</v>
       </c>
       <c r="B829" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C829"/>
     </row>
@@ -9096,16 +9094,16 @@
         <v>257</v>
       </c>
       <c r="B830" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C830"/>
     </row>
     <row r="831">
       <c r="A831" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B831" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C831"/>
     </row>
@@ -9114,7 +9112,7 @@
         <v>260</v>
       </c>
       <c r="B832" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C832"/>
     </row>
@@ -9123,7 +9121,7 @@
         <v>260</v>
       </c>
       <c r="B833" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C833"/>
     </row>
@@ -9132,7 +9130,7 @@
         <v>260</v>
       </c>
       <c r="B834" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C834"/>
     </row>
@@ -9141,7 +9139,7 @@
         <v>260</v>
       </c>
       <c r="B835" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C835"/>
     </row>
@@ -9150,7 +9148,7 @@
         <v>260</v>
       </c>
       <c r="B836" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C836"/>
     </row>
@@ -9159,7 +9157,7 @@
         <v>260</v>
       </c>
       <c r="B837" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C837"/>
     </row>
@@ -9168,16 +9166,16 @@
         <v>260</v>
       </c>
       <c r="B838" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C838"/>
     </row>
     <row r="839">
       <c r="A839" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B839" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C839"/>
     </row>
@@ -9186,7 +9184,7 @@
         <v>261</v>
       </c>
       <c r="B840" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C840"/>
     </row>
@@ -9195,7 +9193,7 @@
         <v>261</v>
       </c>
       <c r="B841" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C841"/>
     </row>
@@ -9204,49 +9202,51 @@
         <v>261</v>
       </c>
       <c r="B842" t="s">
-        <v>6</v>
-      </c>
-      <c r="C842"/>
+        <v>7</v>
+      </c>
+      <c r="C842" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" t="s">
         <v>261</v>
       </c>
       <c r="B843" t="s">
-        <v>7</v>
-      </c>
-      <c r="C843" t="s">
-        <v>262</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C843"/>
     </row>
     <row r="844">
       <c r="A844" t="s">
         <v>261</v>
       </c>
       <c r="B844" t="s">
-        <v>8</v>
-      </c>
-      <c r="C844"/>
+        <v>9</v>
+      </c>
+      <c r="C844" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" t="s">
         <v>261</v>
       </c>
       <c r="B845" t="s">
-        <v>9</v>
-      </c>
-      <c r="C845" t="s">
-        <v>263</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C845"/>
     </row>
     <row r="846">
       <c r="A846" t="s">
         <v>261</v>
       </c>
       <c r="B846" t="s">
-        <v>10</v>
-      </c>
-      <c r="C846"/>
+        <v>12</v>
+      </c>
+      <c r="C846" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" t="s">
@@ -9256,7 +9256,7 @@
         <v>12</v>
       </c>
       <c r="C847" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="848">
@@ -9267,7 +9267,7 @@
         <v>12</v>
       </c>
       <c r="C848" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="849">
@@ -9278,7 +9278,7 @@
         <v>12</v>
       </c>
       <c r="C849" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="850">
@@ -9289,7 +9289,7 @@
         <v>12</v>
       </c>
       <c r="C850" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="851">
@@ -9300,7 +9300,7 @@
         <v>12</v>
       </c>
       <c r="C851" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="852">
@@ -9311,7 +9311,7 @@
         <v>12</v>
       </c>
       <c r="C852" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="853">
@@ -9322,7 +9322,7 @@
         <v>12</v>
       </c>
       <c r="C853" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="854">
@@ -9333,7 +9333,7 @@
         <v>12</v>
       </c>
       <c r="C854" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="855">
@@ -9344,26 +9344,24 @@
         <v>12</v>
       </c>
       <c r="C855" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B856" t="s">
-        <v>12</v>
-      </c>
-      <c r="C856" t="s">
-        <v>273</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C856"/>
     </row>
     <row r="857">
       <c r="A857" t="s">
         <v>274</v>
       </c>
       <c r="B857" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C857"/>
     </row>
@@ -9372,7 +9370,7 @@
         <v>274</v>
       </c>
       <c r="B858" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C858"/>
     </row>
@@ -9381,7 +9379,7 @@
         <v>274</v>
       </c>
       <c r="B859" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C859"/>
     </row>
@@ -9390,7 +9388,7 @@
         <v>274</v>
       </c>
       <c r="B860" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C860"/>
     </row>
@@ -9399,7 +9397,7 @@
         <v>274</v>
       </c>
       <c r="B861" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C861"/>
     </row>
@@ -9408,7 +9406,7 @@
         <v>274</v>
       </c>
       <c r="B862" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C862"/>
     </row>
@@ -9417,9 +9415,11 @@
         <v>274</v>
       </c>
       <c r="B863" t="s">
-        <v>10</v>
-      </c>
-      <c r="C863"/>
+        <v>12</v>
+      </c>
+      <c r="C863" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" t="s">
@@ -9429,6 +9429,28 @@
         <v>12</v>
       </c>
       <c r="C864" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>274</v>
+      </c>
+      <c r="B865" t="s">
+        <v>12</v>
+      </c>
+      <c r="C865" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>274</v>
+      </c>
+      <c r="B866" t="s">
+        <v>12</v>
+      </c>
+      <c r="C866" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Keyword_Results.xlsx
+++ b/Keyword_Results.xlsx
@@ -7032,24 +7032,26 @@
         <v>12</v>
       </c>
       <c r="C613" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B614" t="s">
-        <v>4</v>
-      </c>
-      <c r="C614"/>
+        <v>12</v>
+      </c>
+      <c r="C614" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
         <v>184</v>
       </c>
       <c r="B615" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C615"/>
     </row>
@@ -7058,7 +7060,7 @@
         <v>184</v>
       </c>
       <c r="B616" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C616"/>
     </row>
@@ -7067,7 +7069,7 @@
         <v>184</v>
       </c>
       <c r="B617" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C617"/>
     </row>
@@ -7076,27 +7078,27 @@
         <v>184</v>
       </c>
       <c r="B618" t="s">
-        <v>8</v>
-      </c>
-      <c r="C618" t="s">
-        <v>185</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C618"/>
     </row>
     <row r="619">
       <c r="A619" t="s">
         <v>184</v>
       </c>
       <c r="B619" t="s">
-        <v>9</v>
-      </c>
-      <c r="C619"/>
+        <v>8</v>
+      </c>
+      <c r="C619" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
         <v>184</v>
       </c>
       <c r="B620" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C620"/>
     </row>
@@ -7105,36 +7107,36 @@
         <v>184</v>
       </c>
       <c r="B621" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C621"/>
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B622" t="s">
-        <v>4</v>
-      </c>
-      <c r="C622" t="s">
-        <v>187</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C622"/>
     </row>
     <row r="623">
       <c r="A623" t="s">
         <v>186</v>
       </c>
       <c r="B623" t="s">
-        <v>5</v>
-      </c>
-      <c r="C623"/>
+        <v>4</v>
+      </c>
+      <c r="C623" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="s">
         <v>186</v>
       </c>
       <c r="B624" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C624"/>
     </row>
@@ -7143,7 +7145,7 @@
         <v>186</v>
       </c>
       <c r="B625" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C625"/>
     </row>
@@ -7152,7 +7154,7 @@
         <v>186</v>
       </c>
       <c r="B626" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C626"/>
     </row>
@@ -7161,7 +7163,7 @@
         <v>186</v>
       </c>
       <c r="B627" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C627"/>
     </row>
@@ -7170,7 +7172,7 @@
         <v>186</v>
       </c>
       <c r="B628" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C628"/>
     </row>
@@ -7179,27 +7181,27 @@
         <v>186</v>
       </c>
       <c r="B629" t="s">
-        <v>12</v>
-      </c>
-      <c r="C629" t="s">
-        <v>188</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C629"/>
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B630" t="s">
-        <v>4</v>
-      </c>
-      <c r="C630"/>
+        <v>12</v>
+      </c>
+      <c r="C630" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="s">
         <v>189</v>
       </c>
       <c r="B631" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C631"/>
     </row>
@@ -7208,7 +7210,7 @@
         <v>189</v>
       </c>
       <c r="B632" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C632"/>
     </row>
@@ -7217,7 +7219,7 @@
         <v>189</v>
       </c>
       <c r="B633" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C633"/>
     </row>
@@ -7226,7 +7228,7 @@
         <v>189</v>
       </c>
       <c r="B634" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C634"/>
     </row>
@@ -7235,7 +7237,7 @@
         <v>189</v>
       </c>
       <c r="B635" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C635"/>
     </row>
@@ -7244,7 +7246,7 @@
         <v>189</v>
       </c>
       <c r="B636" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C636"/>
     </row>
@@ -7253,36 +7255,36 @@
         <v>189</v>
       </c>
       <c r="B637" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C637"/>
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B638" t="s">
-        <v>4</v>
-      </c>
-      <c r="C638" t="s">
-        <v>191</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C638"/>
     </row>
     <row r="639">
       <c r="A639" t="s">
         <v>190</v>
       </c>
       <c r="B639" t="s">
-        <v>5</v>
-      </c>
-      <c r="C639"/>
+        <v>4</v>
+      </c>
+      <c r="C639" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="s">
         <v>190</v>
       </c>
       <c r="B640" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C640"/>
     </row>
@@ -7291,7 +7293,7 @@
         <v>190</v>
       </c>
       <c r="B641" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C641"/>
     </row>
@@ -7300,7 +7302,7 @@
         <v>190</v>
       </c>
       <c r="B642" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C642"/>
     </row>
@@ -7309,7 +7311,7 @@
         <v>190</v>
       </c>
       <c r="B643" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C643"/>
     </row>
@@ -7318,38 +7320,38 @@
         <v>190</v>
       </c>
       <c r="B644" t="s">
-        <v>10</v>
-      </c>
-      <c r="C644" t="s">
-        <v>192</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C644"/>
     </row>
     <row r="645">
       <c r="A645" t="s">
         <v>190</v>
       </c>
       <c r="B645" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C645" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B646" t="s">
-        <v>4</v>
-      </c>
-      <c r="C646"/>
+        <v>12</v>
+      </c>
+      <c r="C646" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
         <v>194</v>
       </c>
       <c r="B647" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C647"/>
     </row>
@@ -7358,7 +7360,7 @@
         <v>194</v>
       </c>
       <c r="B648" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C648"/>
     </row>
@@ -7367,7 +7369,7 @@
         <v>194</v>
       </c>
       <c r="B649" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C649"/>
     </row>
@@ -7376,7 +7378,7 @@
         <v>194</v>
       </c>
       <c r="B650" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C650"/>
     </row>
@@ -7385,7 +7387,7 @@
         <v>194</v>
       </c>
       <c r="B651" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C651"/>
     </row>
@@ -7394,7 +7396,7 @@
         <v>194</v>
       </c>
       <c r="B652" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C652"/>
     </row>
@@ -7403,16 +7405,16 @@
         <v>194</v>
       </c>
       <c r="B653" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C653"/>
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B654" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C654"/>
     </row>
@@ -7421,7 +7423,7 @@
         <v>195</v>
       </c>
       <c r="B655" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C655"/>
     </row>
@@ -7430,7 +7432,7 @@
         <v>195</v>
       </c>
       <c r="B656" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C656"/>
     </row>
@@ -7439,7 +7441,7 @@
         <v>195</v>
       </c>
       <c r="B657" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C657"/>
     </row>
@@ -7448,11 +7450,9 @@
         <v>195</v>
       </c>
       <c r="B658" t="s">
-        <v>8</v>
-      </c>
-      <c r="C658" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C658"/>
     </row>
     <row r="659">
       <c r="A659" t="s">
@@ -7473,7 +7473,7 @@
         <v>8</v>
       </c>
       <c r="C660" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
     </row>
     <row r="661">
@@ -7481,16 +7481,18 @@
         <v>195</v>
       </c>
       <c r="B661" t="s">
-        <v>9</v>
-      </c>
-      <c r="C661"/>
+        <v>8</v>
+      </c>
+      <c r="C661" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="s">
         <v>195</v>
       </c>
       <c r="B662" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C662"/>
     </row>
@@ -7499,16 +7501,16 @@
         <v>195</v>
       </c>
       <c r="B663" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C663"/>
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B664" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C664"/>
     </row>
@@ -7517,7 +7519,7 @@
         <v>197</v>
       </c>
       <c r="B665" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C665"/>
     </row>
@@ -7526,7 +7528,7 @@
         <v>197</v>
       </c>
       <c r="B666" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C666"/>
     </row>
@@ -7535,7 +7537,7 @@
         <v>197</v>
       </c>
       <c r="B667" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C667"/>
     </row>
@@ -7544,7 +7546,7 @@
         <v>197</v>
       </c>
       <c r="B668" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C668"/>
     </row>
@@ -7553,7 +7555,7 @@
         <v>197</v>
       </c>
       <c r="B669" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C669"/>
     </row>
@@ -7562,7 +7564,7 @@
         <v>197</v>
       </c>
       <c r="B670" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C670"/>
     </row>
@@ -7571,16 +7573,16 @@
         <v>197</v>
       </c>
       <c r="B671" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C671"/>
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B672" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C672"/>
     </row>
@@ -7589,7 +7591,7 @@
         <v>198</v>
       </c>
       <c r="B673" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C673"/>
     </row>
@@ -7598,7 +7600,7 @@
         <v>198</v>
       </c>
       <c r="B674" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C674"/>
     </row>
@@ -7607,7 +7609,7 @@
         <v>198</v>
       </c>
       <c r="B675" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C675"/>
     </row>
@@ -7616,7 +7618,7 @@
         <v>198</v>
       </c>
       <c r="B676" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C676"/>
     </row>
@@ -7625,7 +7627,7 @@
         <v>198</v>
       </c>
       <c r="B677" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C677"/>
     </row>
@@ -7634,7 +7636,7 @@
         <v>198</v>
       </c>
       <c r="B678" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C678"/>
     </row>
@@ -7643,16 +7645,16 @@
         <v>198</v>
       </c>
       <c r="B679" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C679"/>
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B680" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C680"/>
     </row>
@@ -7661,7 +7663,7 @@
         <v>199</v>
       </c>
       <c r="B681" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C681"/>
     </row>
@@ -7670,7 +7672,7 @@
         <v>199</v>
       </c>
       <c r="B682" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C682"/>
     </row>
@@ -7679,7 +7681,7 @@
         <v>199</v>
       </c>
       <c r="B683" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C683"/>
     </row>
@@ -7688,11 +7690,9 @@
         <v>199</v>
       </c>
       <c r="B684" t="s">
-        <v>8</v>
-      </c>
-      <c r="C684" t="s">
-        <v>200</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C684"/>
     </row>
     <row r="685">
       <c r="A685" t="s">
@@ -7702,7 +7702,7 @@
         <v>8</v>
       </c>
       <c r="C685" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="686">
@@ -7710,16 +7710,18 @@
         <v>199</v>
       </c>
       <c r="B686" t="s">
-        <v>9</v>
-      </c>
-      <c r="C686"/>
+        <v>8</v>
+      </c>
+      <c r="C686" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="s">
         <v>199</v>
       </c>
       <c r="B687" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C687"/>
     </row>
@@ -7728,16 +7730,16 @@
         <v>199</v>
       </c>
       <c r="B688" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C688"/>
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B689" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C689"/>
     </row>
@@ -7746,7 +7748,7 @@
         <v>202</v>
       </c>
       <c r="B690" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C690"/>
     </row>
@@ -7755,7 +7757,7 @@
         <v>202</v>
       </c>
       <c r="B691" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C691"/>
     </row>
@@ -7764,11 +7766,9 @@
         <v>202</v>
       </c>
       <c r="B692" t="s">
-        <v>7</v>
-      </c>
-      <c r="C692" t="s">
-        <v>203</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C692"/>
     </row>
     <row r="693">
       <c r="A693" t="s">
@@ -7778,7 +7778,7 @@
         <v>7</v>
       </c>
       <c r="C693" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="694">
@@ -7789,7 +7789,7 @@
         <v>7</v>
       </c>
       <c r="C694" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="695">
@@ -7797,16 +7797,18 @@
         <v>202</v>
       </c>
       <c r="B695" t="s">
-        <v>8</v>
-      </c>
-      <c r="C695"/>
+        <v>7</v>
+      </c>
+      <c r="C695" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="s">
         <v>202</v>
       </c>
       <c r="B696" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C696"/>
     </row>
@@ -7815,7 +7817,7 @@
         <v>202</v>
       </c>
       <c r="B697" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C697"/>
     </row>
@@ -7824,36 +7826,36 @@
         <v>202</v>
       </c>
       <c r="B698" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C698"/>
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B699" t="s">
-        <v>4</v>
-      </c>
-      <c r="C699" t="s">
-        <v>207</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C699"/>
     </row>
     <row r="700">
       <c r="A700" t="s">
         <v>206</v>
       </c>
       <c r="B700" t="s">
-        <v>5</v>
-      </c>
-      <c r="C700"/>
+        <v>4</v>
+      </c>
+      <c r="C700" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="s">
         <v>206</v>
       </c>
       <c r="B701" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C701"/>
     </row>
@@ -7862,7 +7864,7 @@
         <v>206</v>
       </c>
       <c r="B702" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C702"/>
     </row>
@@ -7871,11 +7873,9 @@
         <v>206</v>
       </c>
       <c r="B703" t="s">
-        <v>8</v>
-      </c>
-      <c r="C703" t="s">
-        <v>208</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C703"/>
     </row>
     <row r="704">
       <c r="A704" t="s">
@@ -7885,7 +7885,7 @@
         <v>8</v>
       </c>
       <c r="C704" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="705">
@@ -7893,16 +7893,18 @@
         <v>206</v>
       </c>
       <c r="B705" t="s">
-        <v>9</v>
-      </c>
-      <c r="C705"/>
+        <v>8</v>
+      </c>
+      <c r="C705" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="s">
         <v>206</v>
       </c>
       <c r="B706" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C706"/>
     </row>
@@ -7911,16 +7913,16 @@
         <v>206</v>
       </c>
       <c r="B707" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C707"/>
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B708" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C708"/>
     </row>
@@ -7929,7 +7931,7 @@
         <v>210</v>
       </c>
       <c r="B709" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C709"/>
     </row>
@@ -7938,7 +7940,7 @@
         <v>210</v>
       </c>
       <c r="B710" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C710"/>
     </row>
@@ -7947,7 +7949,7 @@
         <v>210</v>
       </c>
       <c r="B711" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C711"/>
     </row>
@@ -7956,27 +7958,27 @@
         <v>210</v>
       </c>
       <c r="B712" t="s">
-        <v>8</v>
-      </c>
-      <c r="C712" t="s">
-        <v>211</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C712"/>
     </row>
     <row r="713">
       <c r="A713" t="s">
         <v>210</v>
       </c>
       <c r="B713" t="s">
-        <v>9</v>
-      </c>
-      <c r="C713"/>
+        <v>8</v>
+      </c>
+      <c r="C713" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="s">
         <v>210</v>
       </c>
       <c r="B714" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C714"/>
     </row>
@@ -7985,16 +7987,16 @@
         <v>210</v>
       </c>
       <c r="B715" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C715"/>
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B716" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C716"/>
     </row>
@@ -8003,7 +8005,7 @@
         <v>212</v>
       </c>
       <c r="B717" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C717"/>
     </row>
@@ -8012,7 +8014,7 @@
         <v>212</v>
       </c>
       <c r="B718" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C718"/>
     </row>
@@ -8021,7 +8023,7 @@
         <v>212</v>
       </c>
       <c r="B719" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C719"/>
     </row>
@@ -8030,7 +8032,7 @@
         <v>212</v>
       </c>
       <c r="B720" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C720"/>
     </row>
@@ -8039,7 +8041,7 @@
         <v>212</v>
       </c>
       <c r="B721" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C721"/>
     </row>
@@ -8048,7 +8050,7 @@
         <v>212</v>
       </c>
       <c r="B722" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C722"/>
     </row>
@@ -8057,16 +8059,16 @@
         <v>212</v>
       </c>
       <c r="B723" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C723"/>
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B724" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C724"/>
     </row>
@@ -8075,7 +8077,7 @@
         <v>213</v>
       </c>
       <c r="B725" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C725"/>
     </row>
@@ -8084,7 +8086,7 @@
         <v>213</v>
       </c>
       <c r="B726" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C726"/>
     </row>
@@ -8093,7 +8095,7 @@
         <v>213</v>
       </c>
       <c r="B727" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C727"/>
     </row>
@@ -8102,7 +8104,7 @@
         <v>213</v>
       </c>
       <c r="B728" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C728"/>
     </row>
@@ -8111,7 +8113,7 @@
         <v>213</v>
       </c>
       <c r="B729" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C729"/>
     </row>
@@ -8120,11 +8122,9 @@
         <v>213</v>
       </c>
       <c r="B730" t="s">
-        <v>10</v>
-      </c>
-      <c r="C730" t="s">
-        <v>214</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C730"/>
     </row>
     <row r="731">
       <c r="A731" t="s">
@@ -8134,7 +8134,7 @@
         <v>10</v>
       </c>
       <c r="C731" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="732">
@@ -8142,10 +8142,10 @@
         <v>213</v>
       </c>
       <c r="B732" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C732" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="733">
@@ -8156,7 +8156,7 @@
         <v>12</v>
       </c>
       <c r="C733" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="734">
@@ -8167,7 +8167,7 @@
         <v>12</v>
       </c>
       <c r="C734" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="735">
@@ -8178,7 +8178,7 @@
         <v>12</v>
       </c>
       <c r="C735" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="736">
@@ -8189,7 +8189,7 @@
         <v>12</v>
       </c>
       <c r="C736" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="737">
@@ -8200,18 +8200,18 @@
         <v>12</v>
       </c>
       <c r="C737" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B738" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C738" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="739">
@@ -8219,16 +8219,18 @@
         <v>222</v>
       </c>
       <c r="B739" t="s">
-        <v>5</v>
-      </c>
-      <c r="C739"/>
+        <v>4</v>
+      </c>
+      <c r="C739" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="s">
         <v>222</v>
       </c>
       <c r="B740" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C740"/>
     </row>
@@ -8237,7 +8239,7 @@
         <v>222</v>
       </c>
       <c r="B741" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C741"/>
     </row>
@@ -8246,7 +8248,7 @@
         <v>222</v>
       </c>
       <c r="B742" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C742"/>
     </row>
@@ -8255,7 +8257,7 @@
         <v>222</v>
       </c>
       <c r="B743" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C743"/>
     </row>
@@ -8264,7 +8266,7 @@
         <v>222</v>
       </c>
       <c r="B744" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C744"/>
     </row>
@@ -8273,24 +8275,24 @@
         <v>222</v>
       </c>
       <c r="B745" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C745"/>
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>224</v>
-      </c>
-      <c r="B746"/>
+        <v>222</v>
+      </c>
+      <c r="B746" t="s">
+        <v>12</v>
+      </c>
       <c r="C746"/>
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>225</v>
-      </c>
-      <c r="B747" t="s">
-        <v>4</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B747"/>
       <c r="C747"/>
     </row>
     <row r="748">
@@ -8298,7 +8300,7 @@
         <v>225</v>
       </c>
       <c r="B748" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C748"/>
     </row>
@@ -8307,7 +8309,7 @@
         <v>225</v>
       </c>
       <c r="B749" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C749"/>
     </row>
@@ -8316,7 +8318,7 @@
         <v>225</v>
       </c>
       <c r="B750" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C750"/>
     </row>
@@ -8325,7 +8327,7 @@
         <v>225</v>
       </c>
       <c r="B751" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C751"/>
     </row>
@@ -8334,7 +8336,7 @@
         <v>225</v>
       </c>
       <c r="B752" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C752"/>
     </row>
@@ -8343,7 +8345,7 @@
         <v>225</v>
       </c>
       <c r="B753" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C753"/>
     </row>
@@ -8352,20 +8354,18 @@
         <v>225</v>
       </c>
       <c r="B754" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C754"/>
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B755" t="s">
-        <v>4</v>
-      </c>
-      <c r="C755" t="s">
-        <v>227</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C755"/>
     </row>
     <row r="756">
       <c r="A756" t="s">
@@ -8375,7 +8375,7 @@
         <v>4</v>
       </c>
       <c r="C756" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="757">
@@ -8383,16 +8383,18 @@
         <v>226</v>
       </c>
       <c r="B757" t="s">
-        <v>5</v>
-      </c>
-      <c r="C757"/>
+        <v>4</v>
+      </c>
+      <c r="C757" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="s">
         <v>226</v>
       </c>
       <c r="B758" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C758"/>
     </row>
@@ -8401,7 +8403,7 @@
         <v>226</v>
       </c>
       <c r="B759" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C759"/>
     </row>
@@ -8410,11 +8412,9 @@
         <v>226</v>
       </c>
       <c r="B760" t="s">
-        <v>8</v>
-      </c>
-      <c r="C760" t="s">
-        <v>229</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C760"/>
     </row>
     <row r="761">
       <c r="A761" t="s">
@@ -8424,7 +8424,7 @@
         <v>8</v>
       </c>
       <c r="C761" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="762">
@@ -8432,16 +8432,18 @@
         <v>226</v>
       </c>
       <c r="B762" t="s">
-        <v>9</v>
-      </c>
-      <c r="C762"/>
+        <v>8</v>
+      </c>
+      <c r="C762" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="s">
         <v>226</v>
       </c>
       <c r="B763" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C763"/>
     </row>
@@ -8450,11 +8452,9 @@
         <v>226</v>
       </c>
       <c r="B764" t="s">
-        <v>12</v>
-      </c>
-      <c r="C764" t="s">
-        <v>231</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C764"/>
     </row>
     <row r="765">
       <c r="A765" t="s">
@@ -8464,24 +8464,26 @@
         <v>12</v>
       </c>
       <c r="C765" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B766" t="s">
-        <v>4</v>
-      </c>
-      <c r="C766"/>
+        <v>12</v>
+      </c>
+      <c r="C766" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="s">
         <v>233</v>
       </c>
       <c r="B767" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C767"/>
     </row>
@@ -8490,7 +8492,7 @@
         <v>233</v>
       </c>
       <c r="B768" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C768"/>
     </row>
@@ -8499,7 +8501,7 @@
         <v>233</v>
       </c>
       <c r="B769" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C769"/>
     </row>
@@ -8508,11 +8510,9 @@
         <v>233</v>
       </c>
       <c r="B770" t="s">
-        <v>8</v>
-      </c>
-      <c r="C770" t="s">
-        <v>234</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C770"/>
     </row>
     <row r="771">
       <c r="A771" t="s">
@@ -8522,7 +8522,7 @@
         <v>8</v>
       </c>
       <c r="C771" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="772">
@@ -8530,16 +8530,18 @@
         <v>233</v>
       </c>
       <c r="B772" t="s">
-        <v>9</v>
-      </c>
-      <c r="C772"/>
+        <v>8</v>
+      </c>
+      <c r="C772" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="s">
         <v>233</v>
       </c>
       <c r="B773" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C773"/>
     </row>
@@ -8548,27 +8550,27 @@
         <v>233</v>
       </c>
       <c r="B774" t="s">
-        <v>12</v>
-      </c>
-      <c r="C774" t="s">
-        <v>236</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C774"/>
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B775" t="s">
-        <v>4</v>
-      </c>
-      <c r="C775"/>
+        <v>12</v>
+      </c>
+      <c r="C775" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="s">
         <v>237</v>
       </c>
       <c r="B776" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C776"/>
     </row>
@@ -8577,7 +8579,7 @@
         <v>237</v>
       </c>
       <c r="B777" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C777"/>
     </row>
@@ -8586,7 +8588,7 @@
         <v>237</v>
       </c>
       <c r="B778" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C778"/>
     </row>
@@ -8595,11 +8597,9 @@
         <v>237</v>
       </c>
       <c r="B779" t="s">
-        <v>8</v>
-      </c>
-      <c r="C779" t="s">
-        <v>238</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C779"/>
     </row>
     <row r="780">
       <c r="A780" t="s">
@@ -8620,7 +8620,7 @@
         <v>8</v>
       </c>
       <c r="C781" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="782">
@@ -8631,7 +8631,7 @@
         <v>8</v>
       </c>
       <c r="C782" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="783">
@@ -8642,7 +8642,7 @@
         <v>8</v>
       </c>
       <c r="C783" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="784">
@@ -8650,10 +8650,10 @@
         <v>237</v>
       </c>
       <c r="B784" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C784" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="785">
@@ -8664,7 +8664,7 @@
         <v>9</v>
       </c>
       <c r="C785" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="786">
@@ -8675,7 +8675,7 @@
         <v>9</v>
       </c>
       <c r="C786" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="787">
@@ -8686,7 +8686,7 @@
         <v>9</v>
       </c>
       <c r="C787" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="788">
@@ -8697,7 +8697,7 @@
         <v>9</v>
       </c>
       <c r="C788" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="789">
@@ -8705,25 +8705,27 @@
         <v>237</v>
       </c>
       <c r="B789" t="s">
-        <v>10</v>
-      </c>
-      <c r="C789"/>
+        <v>9</v>
+      </c>
+      <c r="C789" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="s">
         <v>237</v>
       </c>
       <c r="B790" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C790"/>
     </row>
     <row r="791">
       <c r="A791" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B791" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C791"/>
     </row>
@@ -8732,7 +8734,7 @@
         <v>247</v>
       </c>
       <c r="B792" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C792"/>
     </row>
@@ -8741,7 +8743,7 @@
         <v>247</v>
       </c>
       <c r="B793" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C793"/>
     </row>
@@ -8750,7 +8752,7 @@
         <v>247</v>
       </c>
       <c r="B794" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C794"/>
     </row>
@@ -8759,7 +8761,7 @@
         <v>247</v>
       </c>
       <c r="B795" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C795"/>
     </row>
@@ -8768,7 +8770,7 @@
         <v>247</v>
       </c>
       <c r="B796" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C796"/>
     </row>
@@ -8777,7 +8779,7 @@
         <v>247</v>
       </c>
       <c r="B797" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C797"/>
     </row>
@@ -8786,16 +8788,16 @@
         <v>247</v>
       </c>
       <c r="B798" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C798"/>
     </row>
     <row r="799">
       <c r="A799" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B799" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C799"/>
     </row>
@@ -8804,7 +8806,7 @@
         <v>248</v>
       </c>
       <c r="B800" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C800"/>
     </row>
@@ -8813,7 +8815,7 @@
         <v>248</v>
       </c>
       <c r="B801" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C801"/>
     </row>
@@ -8822,7 +8824,7 @@
         <v>248</v>
       </c>
       <c r="B802" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C802"/>
     </row>
@@ -8831,7 +8833,7 @@
         <v>248</v>
       </c>
       <c r="B803" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C803"/>
     </row>
@@ -8840,7 +8842,7 @@
         <v>248</v>
       </c>
       <c r="B804" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C804"/>
     </row>
@@ -8849,7 +8851,7 @@
         <v>248</v>
       </c>
       <c r="B805" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C805"/>
     </row>
@@ -8858,16 +8860,16 @@
         <v>248</v>
       </c>
       <c r="B806" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C806"/>
     </row>
     <row r="807">
       <c r="A807" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B807" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C807"/>
     </row>
@@ -8876,7 +8878,7 @@
         <v>249</v>
       </c>
       <c r="B808" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C808"/>
     </row>
@@ -8885,7 +8887,7 @@
         <v>249</v>
       </c>
       <c r="B809" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C809"/>
     </row>
@@ -8894,7 +8896,7 @@
         <v>249</v>
       </c>
       <c r="B810" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C810"/>
     </row>
@@ -8903,7 +8905,7 @@
         <v>249</v>
       </c>
       <c r="B811" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C811"/>
     </row>
@@ -8912,7 +8914,7 @@
         <v>249</v>
       </c>
       <c r="B812" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C812"/>
     </row>
@@ -8921,7 +8923,7 @@
         <v>249</v>
       </c>
       <c r="B813" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C813"/>
     </row>
@@ -8930,11 +8932,9 @@
         <v>249</v>
       </c>
       <c r="B814" t="s">
-        <v>12</v>
-      </c>
-      <c r="C814" t="s">
-        <v>250</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C814"/>
     </row>
     <row r="815">
       <c r="A815" t="s">
@@ -8944,7 +8944,7 @@
         <v>12</v>
       </c>
       <c r="C815" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="816">
@@ -8955,7 +8955,7 @@
         <v>12</v>
       </c>
       <c r="C816" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="817">
@@ -8966,7 +8966,7 @@
         <v>12</v>
       </c>
       <c r="C817" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="818">
@@ -8977,7 +8977,7 @@
         <v>12</v>
       </c>
       <c r="C818" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="819">
@@ -8988,7 +8988,7 @@
         <v>12</v>
       </c>
       <c r="C819" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="820">
@@ -8999,7 +8999,7 @@
         <v>12</v>
       </c>
       <c r="C820" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="821">
@@ -9015,19 +9015,21 @@
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B822" t="s">
-        <v>4</v>
-      </c>
-      <c r="C822"/>
+        <v>12</v>
+      </c>
+      <c r="C822" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" t="s">
         <v>257</v>
       </c>
       <c r="B823" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C823"/>
     </row>
@@ -9036,7 +9038,7 @@
         <v>257</v>
       </c>
       <c r="B824" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C824"/>
     </row>
@@ -9045,7 +9047,7 @@
         <v>257</v>
       </c>
       <c r="B825" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C825"/>
     </row>
@@ -9054,11 +9056,9 @@
         <v>257</v>
       </c>
       <c r="B826" t="s">
-        <v>8</v>
-      </c>
-      <c r="C826" t="s">
-        <v>258</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C826"/>
     </row>
     <row r="827">
       <c r="A827" t="s">
@@ -9068,7 +9068,7 @@
         <v>8</v>
       </c>
       <c r="C827" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="828">
@@ -9076,16 +9076,18 @@
         <v>257</v>
       </c>
       <c r="B828" t="s">
-        <v>9</v>
-      </c>
-      <c r="C828"/>
+        <v>8</v>
+      </c>
+      <c r="C828" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" t="s">
         <v>257</v>
       </c>
       <c r="B829" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C829"/>
     </row>
@@ -9094,16 +9096,16 @@
         <v>257</v>
       </c>
       <c r="B830" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C830"/>
     </row>
     <row r="831">
       <c r="A831" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B831" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C831"/>
     </row>
@@ -9112,7 +9114,7 @@
         <v>260</v>
       </c>
       <c r="B832" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C832"/>
     </row>
@@ -9121,7 +9123,7 @@
         <v>260</v>
       </c>
       <c r="B833" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C833"/>
     </row>
@@ -9130,7 +9132,7 @@
         <v>260</v>
       </c>
       <c r="B834" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C834"/>
     </row>
@@ -9139,7 +9141,7 @@
         <v>260</v>
       </c>
       <c r="B835" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C835"/>
     </row>
@@ -9148,7 +9150,7 @@
         <v>260</v>
       </c>
       <c r="B836" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C836"/>
     </row>
@@ -9157,7 +9159,7 @@
         <v>260</v>
       </c>
       <c r="B837" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C837"/>
     </row>
@@ -9166,16 +9168,16 @@
         <v>260</v>
       </c>
       <c r="B838" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C838"/>
     </row>
     <row r="839">
       <c r="A839" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B839" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C839"/>
     </row>
@@ -9184,7 +9186,7 @@
         <v>261</v>
       </c>
       <c r="B840" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C840"/>
     </row>
@@ -9193,7 +9195,7 @@
         <v>261</v>
       </c>
       <c r="B841" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C841"/>
     </row>
@@ -9202,51 +9204,49 @@
         <v>261</v>
       </c>
       <c r="B842" t="s">
-        <v>7</v>
-      </c>
-      <c r="C842" t="s">
-        <v>262</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C842"/>
     </row>
     <row r="843">
       <c r="A843" t="s">
         <v>261</v>
       </c>
       <c r="B843" t="s">
-        <v>8</v>
-      </c>
-      <c r="C843"/>
+        <v>7</v>
+      </c>
+      <c r="C843" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" t="s">
         <v>261</v>
       </c>
       <c r="B844" t="s">
-        <v>9</v>
-      </c>
-      <c r="C844" t="s">
-        <v>263</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C844"/>
     </row>
     <row r="845">
       <c r="A845" t="s">
         <v>261</v>
       </c>
       <c r="B845" t="s">
-        <v>10</v>
-      </c>
-      <c r="C845"/>
+        <v>9</v>
+      </c>
+      <c r="C845" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" t="s">
         <v>261</v>
       </c>
       <c r="B846" t="s">
-        <v>12</v>
-      </c>
-      <c r="C846" t="s">
-        <v>264</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C846"/>
     </row>
     <row r="847">
       <c r="A847" t="s">
@@ -9256,7 +9256,7 @@
         <v>12</v>
       </c>
       <c r="C847" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="848">
@@ -9267,7 +9267,7 @@
         <v>12</v>
       </c>
       <c r="C848" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="849">
@@ -9278,7 +9278,7 @@
         <v>12</v>
       </c>
       <c r="C849" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="850">
@@ -9289,7 +9289,7 @@
         <v>12</v>
       </c>
       <c r="C850" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="851">
@@ -9300,7 +9300,7 @@
         <v>12</v>
       </c>
       <c r="C851" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="852">
@@ -9311,7 +9311,7 @@
         <v>12</v>
       </c>
       <c r="C852" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="853">
@@ -9322,7 +9322,7 @@
         <v>12</v>
       </c>
       <c r="C853" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="854">
@@ -9333,7 +9333,7 @@
         <v>12</v>
       </c>
       <c r="C854" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="855">
@@ -9344,24 +9344,26 @@
         <v>12</v>
       </c>
       <c r="C855" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B856" t="s">
-        <v>4</v>
-      </c>
-      <c r="C856"/>
+        <v>12</v>
+      </c>
+      <c r="C856" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" t="s">
         <v>274</v>
       </c>
       <c r="B857" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C857"/>
     </row>
@@ -9370,7 +9372,7 @@
         <v>274</v>
       </c>
       <c r="B858" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C858"/>
     </row>
@@ -9379,7 +9381,7 @@
         <v>274</v>
       </c>
       <c r="B859" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C859"/>
     </row>
@@ -9388,7 +9390,7 @@
         <v>274</v>
       </c>
       <c r="B860" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C860"/>
     </row>
@@ -9397,7 +9399,7 @@
         <v>274</v>
       </c>
       <c r="B861" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C861"/>
     </row>
@@ -9406,7 +9408,7 @@
         <v>274</v>
       </c>
       <c r="B862" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C862"/>
     </row>
@@ -9415,11 +9417,9 @@
         <v>274</v>
       </c>
       <c r="B863" t="s">
-        <v>12</v>
-      </c>
-      <c r="C863" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C863"/>
     </row>
     <row r="864">
       <c r="A864" t="s">
@@ -9451,6 +9451,39 @@
         <v>12</v>
       </c>
       <c r="C866" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>274</v>
+      </c>
+      <c r="B867" t="s">
+        <v>12</v>
+      </c>
+      <c r="C867" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>274</v>
+      </c>
+      <c r="B868" t="s">
+        <v>12</v>
+      </c>
+      <c r="C868" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>274</v>
+      </c>
+      <c r="B869" t="s">
+        <v>12</v>
+      </c>
+      <c r="C869" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Keyword_Results.xlsx
+++ b/Keyword_Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">https://www.manpower.ch/de</t>
   </si>
   <si>
-    <t xml:space="preserve">}","params":{},"fields":{"mandatoryConsentText":{"value":""},"</t>
+    <t xml:space="preserve">":{"value":""},"mandatoryConsentText":{"value":""},"</t>
   </si>
   <si>
     <t xml:space="preserve">-895c-46d73197b61f","name":"Assessments and trainings","displayName</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">":"Jobofferten Fest- und Temporärstellen | Bewerbungsunterlagen</t>
   </si>
   <si>
-    <t xml:space="preserve">value":""},"title":{"value":"Temporäreinsätze"},"image":{"value</t>
+    <t xml:space="preserve">","fields":{"title":{"value":"Temporäreinsätze"},"image":{"value</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.markritter.ch/</t>
@@ -561,9 +561,6 @@
   </si>
   <si>
     <t xml:space="preserve">Personalverleih / Try &amp; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temporäre Anstellung</t>
   </si>
   <si>
     <t xml:space="preserve">https://portfolia.ch/</t>
@@ -7037,225 +7034,223 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B614" t="s">
-        <v>12</v>
-      </c>
-      <c r="C614" t="s">
-        <v>183</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C614"/>
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B615" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C615"/>
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B616" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C616"/>
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B617" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C617"/>
     </row>
     <row r="618">
       <c r="A618" t="s">
+        <v>183</v>
+      </c>
+      <c r="B618" t="s">
+        <v>8</v>
+      </c>
+      <c r="C618" t="s">
         <v>184</v>
       </c>
-      <c r="B618" t="s">
-        <v>7</v>
-      </c>
-      <c r="C618"/>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B619" t="s">
-        <v>8</v>
-      </c>
-      <c r="C619" t="s">
-        <v>185</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C619"/>
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B620" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C620"/>
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B621" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C621"/>
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B622" t="s">
-        <v>12</v>
-      </c>
-      <c r="C622"/>
+        <v>4</v>
+      </c>
+      <c r="C622" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B623" t="s">
-        <v>4</v>
-      </c>
-      <c r="C623" t="s">
-        <v>187</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C623"/>
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B624" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C624"/>
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B625" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C625"/>
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B626" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C626"/>
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B627" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C627"/>
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B628" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C628"/>
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B629" t="s">
-        <v>10</v>
-      </c>
-      <c r="C629"/>
+        <v>12</v>
+      </c>
+      <c r="C629" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B630" t="s">
-        <v>12</v>
-      </c>
-      <c r="C630" t="s">
-        <v>188</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C630"/>
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B631" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C631"/>
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B632" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C632"/>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B633" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C633"/>
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B634" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C634"/>
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B635" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C635"/>
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B636" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C636"/>
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B637" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C637"/>
     </row>
@@ -7264,72 +7259,74 @@
         <v>189</v>
       </c>
       <c r="B638" t="s">
-        <v>12</v>
-      </c>
-      <c r="C638"/>
+        <v>4</v>
+      </c>
+      <c r="C638" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B639" t="s">
-        <v>4</v>
-      </c>
-      <c r="C639" t="s">
-        <v>191</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C639"/>
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B640" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C640"/>
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B641" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C641"/>
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B642" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C642"/>
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B643" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C643"/>
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B644" t="s">
-        <v>9</v>
-      </c>
-      <c r="C644"/>
+        <v>10</v>
+      </c>
+      <c r="C644" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B645" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C645" t="s">
         <v>192</v>
@@ -7337,75 +7334,73 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B646" t="s">
-        <v>12</v>
-      </c>
-      <c r="C646" t="s">
-        <v>193</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C646"/>
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B647" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C647"/>
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B648" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C648"/>
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B649" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C649"/>
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B650" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C650"/>
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B651" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C651"/>
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B652" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C652"/>
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B653" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C653"/>
     </row>
@@ -7414,49 +7409,51 @@
         <v>194</v>
       </c>
       <c r="B654" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C654"/>
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B655" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C655"/>
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B656" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C656"/>
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B657" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C657"/>
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B658" t="s">
-        <v>7</v>
-      </c>
-      <c r="C658"/>
+        <v>8</v>
+      </c>
+      <c r="C658" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B659" t="s">
         <v>8</v>
@@ -7467,113 +7464,111 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
+        <v>194</v>
+      </c>
+      <c r="B660" t="s">
+        <v>8</v>
+      </c>
+      <c r="C660" t="s">
         <v>195</v>
-      </c>
-      <c r="B660" t="s">
-        <v>8</v>
-      </c>
-      <c r="C660" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B661" t="s">
-        <v>8</v>
-      </c>
-      <c r="C661" t="s">
-        <v>196</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C661"/>
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B662" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C662"/>
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B663" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C663"/>
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B664" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C664"/>
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B665" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C665"/>
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B666" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C666"/>
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B667" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C667"/>
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B668" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C668"/>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B669" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C669"/>
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B670" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C670"/>
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B671" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C671"/>
     </row>
@@ -7582,70 +7577,70 @@
         <v>197</v>
       </c>
       <c r="B672" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C672"/>
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B673" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C673"/>
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B674" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C674"/>
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B675" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C675"/>
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B676" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C676"/>
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B677" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C677"/>
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B678" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C678"/>
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B679" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C679"/>
     </row>
@@ -7654,49 +7649,51 @@
         <v>198</v>
       </c>
       <c r="B680" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C680"/>
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B681" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C681"/>
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B682" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C682"/>
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B683" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C683"/>
     </row>
     <row r="684">
       <c r="A684" t="s">
+        <v>198</v>
+      </c>
+      <c r="B684" t="s">
+        <v>8</v>
+      </c>
+      <c r="C684" t="s">
         <v>199</v>
       </c>
-      <c r="B684" t="s">
-        <v>7</v>
-      </c>
-      <c r="C684"/>
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B685" t="s">
         <v>8</v>
@@ -7707,72 +7704,72 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B686" t="s">
-        <v>8</v>
-      </c>
-      <c r="C686" t="s">
-        <v>201</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C686"/>
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B687" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C687"/>
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B688" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C688"/>
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B689" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C689"/>
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B690" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C690"/>
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B691" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C691"/>
     </row>
     <row r="692">
       <c r="A692" t="s">
+        <v>201</v>
+      </c>
+      <c r="B692" t="s">
+        <v>7</v>
+      </c>
+      <c r="C692" t="s">
         <v>202</v>
       </c>
-      <c r="B692" t="s">
-        <v>6</v>
-      </c>
-      <c r="C692"/>
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B693" t="s">
         <v>7</v>
@@ -7783,7 +7780,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B694" t="s">
         <v>7</v>
@@ -7794,92 +7791,92 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B695" t="s">
-        <v>7</v>
-      </c>
-      <c r="C695" t="s">
-        <v>205</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C695"/>
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B696" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C696"/>
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B697" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C697"/>
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B698" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C698"/>
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B699" t="s">
-        <v>12</v>
-      </c>
-      <c r="C699"/>
+        <v>4</v>
+      </c>
+      <c r="C699" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B700" t="s">
-        <v>4</v>
-      </c>
-      <c r="C700" t="s">
-        <v>207</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C700"/>
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B701" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C701"/>
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B702" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C702"/>
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B703" t="s">
-        <v>7</v>
-      </c>
-      <c r="C703"/>
+        <v>8</v>
+      </c>
+      <c r="C703" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B704" t="s">
         <v>8</v>
@@ -7890,176 +7887,174 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B705" t="s">
-        <v>8</v>
-      </c>
-      <c r="C705" t="s">
-        <v>209</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C705"/>
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B706" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C706"/>
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B707" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C707"/>
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B708" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C708"/>
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B709" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C709"/>
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B710" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C710"/>
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B711" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C711"/>
     </row>
     <row r="712">
       <c r="A712" t="s">
+        <v>209</v>
+      </c>
+      <c r="B712" t="s">
+        <v>8</v>
+      </c>
+      <c r="C712" t="s">
         <v>210</v>
       </c>
-      <c r="B712" t="s">
-        <v>7</v>
-      </c>
-      <c r="C712"/>
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B713" t="s">
-        <v>8</v>
-      </c>
-      <c r="C713" t="s">
-        <v>211</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C713"/>
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B714" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C714"/>
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B715" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C715"/>
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B716" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C716"/>
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B717" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C717"/>
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B718" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C718"/>
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B719" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C719"/>
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B720" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C720"/>
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B721" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C721"/>
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B722" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C722"/>
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B723" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C723"/>
     </row>
@@ -8068,67 +8063,69 @@
         <v>212</v>
       </c>
       <c r="B724" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C724"/>
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B725" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C725"/>
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B726" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C726"/>
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B727" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C727"/>
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B728" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C728"/>
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B729" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C729"/>
     </row>
     <row r="730">
       <c r="A730" t="s">
+        <v>212</v>
+      </c>
+      <c r="B730" t="s">
+        <v>10</v>
+      </c>
+      <c r="C730" t="s">
         <v>213</v>
       </c>
-      <c r="B730" t="s">
-        <v>9</v>
-      </c>
-      <c r="C730"/>
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B731" t="s">
         <v>10</v>
@@ -8139,10 +8136,10 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B732" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C732" t="s">
         <v>215</v>
@@ -8150,7 +8147,7 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B733" t="s">
         <v>12</v>
@@ -8161,7 +8158,7 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B734" t="s">
         <v>12</v>
@@ -8172,7 +8169,7 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B735" t="s">
         <v>12</v>
@@ -8183,7 +8180,7 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B736" t="s">
         <v>12</v>
@@ -8194,7 +8191,7 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B737" t="s">
         <v>12</v>
@@ -8205,156 +8202,154 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B738" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C738" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B739" t="s">
-        <v>4</v>
-      </c>
-      <c r="C739" t="s">
-        <v>223</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C739"/>
     </row>
     <row r="740">
       <c r="A740" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B740" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C740"/>
     </row>
     <row r="741">
       <c r="A741" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B741" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C741"/>
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B742" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C742"/>
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B743" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C743"/>
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B744" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C744"/>
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B745" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C745"/>
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>222</v>
-      </c>
-      <c r="B746" t="s">
-        <v>12</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B746"/>
       <c r="C746"/>
     </row>
     <row r="747">
       <c r="A747" t="s">
         <v>224</v>
       </c>
-      <c r="B747"/>
+      <c r="B747" t="s">
+        <v>4</v>
+      </c>
       <c r="C747"/>
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B748" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C748"/>
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B749" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C749"/>
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B750" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C750"/>
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B751" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C751"/>
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B752" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C752"/>
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B753" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C753"/>
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B754" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C754"/>
     </row>
@@ -8363,13 +8358,15 @@
         <v>225</v>
       </c>
       <c r="B755" t="s">
-        <v>12</v>
-      </c>
-      <c r="C755"/>
+        <v>4</v>
+      </c>
+      <c r="C755" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B756" t="s">
         <v>4</v>
@@ -8380,45 +8377,45 @@
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B757" t="s">
-        <v>4</v>
-      </c>
-      <c r="C757" t="s">
-        <v>228</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C757"/>
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B758" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C758"/>
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B759" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C759"/>
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B760" t="s">
-        <v>7</v>
-      </c>
-      <c r="C760"/>
+        <v>8</v>
+      </c>
+      <c r="C760" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B761" t="s">
         <v>8</v>
@@ -8429,36 +8426,36 @@
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B762" t="s">
-        <v>8</v>
-      </c>
-      <c r="C762" t="s">
-        <v>230</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C762"/>
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B763" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C763"/>
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B764" t="s">
-        <v>10</v>
-      </c>
-      <c r="C764"/>
+        <v>12</v>
+      </c>
+      <c r="C764" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B765" t="s">
         <v>12</v>
@@ -8469,54 +8466,54 @@
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B766" t="s">
-        <v>12</v>
-      </c>
-      <c r="C766" t="s">
-        <v>232</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C766"/>
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B767" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C767"/>
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B768" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C768"/>
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B769" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C769"/>
     </row>
     <row r="770">
       <c r="A770" t="s">
+        <v>232</v>
+      </c>
+      <c r="B770" t="s">
+        <v>8</v>
+      </c>
+      <c r="C770" t="s">
         <v>233</v>
       </c>
-      <c r="B770" t="s">
-        <v>7</v>
-      </c>
-      <c r="C770"/>
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B771" t="s">
         <v>8</v>
@@ -8527,94 +8524,94 @@
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B772" t="s">
-        <v>8</v>
-      </c>
-      <c r="C772" t="s">
-        <v>235</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C772"/>
     </row>
     <row r="773">
       <c r="A773" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B773" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C773"/>
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B774" t="s">
-        <v>10</v>
-      </c>
-      <c r="C774"/>
+        <v>12</v>
+      </c>
+      <c r="C774" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B775" t="s">
-        <v>12</v>
-      </c>
-      <c r="C775" t="s">
-        <v>236</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C775"/>
     </row>
     <row r="776">
       <c r="A776" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B776" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C776"/>
     </row>
     <row r="777">
       <c r="A777" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B777" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C777"/>
     </row>
     <row r="778">
       <c r="A778" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B778" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C778"/>
     </row>
     <row r="779">
       <c r="A779" t="s">
+        <v>236</v>
+      </c>
+      <c r="B779" t="s">
+        <v>8</v>
+      </c>
+      <c r="C779" t="s">
         <v>237</v>
       </c>
-      <c r="B779" t="s">
-        <v>7</v>
-      </c>
-      <c r="C779"/>
     </row>
     <row r="780">
       <c r="A780" t="s">
+        <v>236</v>
+      </c>
+      <c r="B780" t="s">
+        <v>8</v>
+      </c>
+      <c r="C780" t="s">
         <v>237</v>
-      </c>
-      <c r="B780" t="s">
-        <v>8</v>
-      </c>
-      <c r="C780" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B781" t="s">
         <v>8</v>
@@ -8625,7 +8622,7 @@
     </row>
     <row r="782">
       <c r="A782" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B782" t="s">
         <v>8</v>
@@ -8636,7 +8633,7 @@
     </row>
     <row r="783">
       <c r="A783" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B783" t="s">
         <v>8</v>
@@ -8647,10 +8644,10 @@
     </row>
     <row r="784">
       <c r="A784" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B784" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C784" t="s">
         <v>241</v>
@@ -8658,7 +8655,7 @@
     </row>
     <row r="785">
       <c r="A785" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B785" t="s">
         <v>9</v>
@@ -8669,7 +8666,7 @@
     </row>
     <row r="786">
       <c r="A786" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B786" t="s">
         <v>9</v>
@@ -8680,7 +8677,7 @@
     </row>
     <row r="787">
       <c r="A787" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B787" t="s">
         <v>9</v>
@@ -8691,7 +8688,7 @@
     </row>
     <row r="788">
       <c r="A788" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B788" t="s">
         <v>9</v>
@@ -8702,93 +8699,91 @@
     </row>
     <row r="789">
       <c r="A789" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B789" t="s">
-        <v>9</v>
-      </c>
-      <c r="C789" t="s">
-        <v>246</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C789"/>
     </row>
     <row r="790">
       <c r="A790" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B790" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C790"/>
     </row>
     <row r="791">
       <c r="A791" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B791" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C791"/>
     </row>
     <row r="792">
       <c r="A792" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B792" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C792"/>
     </row>
     <row r="793">
       <c r="A793" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B793" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C793"/>
     </row>
     <row r="794">
       <c r="A794" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B794" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C794"/>
     </row>
     <row r="795">
       <c r="A795" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B795" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C795"/>
     </row>
     <row r="796">
       <c r="A796" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B796" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C796"/>
     </row>
     <row r="797">
       <c r="A797" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B797" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C797"/>
     </row>
     <row r="798">
       <c r="A798" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B798" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C798"/>
     </row>
@@ -8797,70 +8792,70 @@
         <v>247</v>
       </c>
       <c r="B799" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C799"/>
     </row>
     <row r="800">
       <c r="A800" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B800" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C800"/>
     </row>
     <row r="801">
       <c r="A801" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B801" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C801"/>
     </row>
     <row r="802">
       <c r="A802" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B802" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C802"/>
     </row>
     <row r="803">
       <c r="A803" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B803" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C803"/>
     </row>
     <row r="804">
       <c r="A804" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B804" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C804"/>
     </row>
     <row r="805">
       <c r="A805" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B805" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C805"/>
     </row>
     <row r="806">
       <c r="A806" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B806" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C806"/>
     </row>
@@ -8869,76 +8864,78 @@
         <v>248</v>
       </c>
       <c r="B807" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C807"/>
     </row>
     <row r="808">
       <c r="A808" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B808" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C808"/>
     </row>
     <row r="809">
       <c r="A809" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B809" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C809"/>
     </row>
     <row r="810">
       <c r="A810" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B810" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C810"/>
     </row>
     <row r="811">
       <c r="A811" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B811" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C811"/>
     </row>
     <row r="812">
       <c r="A812" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B812" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C812"/>
     </row>
     <row r="813">
       <c r="A813" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B813" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C813"/>
     </row>
     <row r="814">
       <c r="A814" t="s">
+        <v>248</v>
+      </c>
+      <c r="B814" t="s">
+        <v>12</v>
+      </c>
+      <c r="C814" t="s">
         <v>249</v>
       </c>
-      <c r="B814" t="s">
-        <v>10</v>
-      </c>
-      <c r="C814"/>
     </row>
     <row r="815">
       <c r="A815" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B815" t="s">
         <v>12</v>
@@ -8949,7 +8946,7 @@
     </row>
     <row r="816">
       <c r="A816" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B816" t="s">
         <v>12</v>
@@ -8960,7 +8957,7 @@
     </row>
     <row r="817">
       <c r="A817" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B817" t="s">
         <v>12</v>
@@ -8971,7 +8968,7 @@
     </row>
     <row r="818">
       <c r="A818" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B818" t="s">
         <v>12</v>
@@ -8982,7 +8979,7 @@
     </row>
     <row r="819">
       <c r="A819" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B819" t="s">
         <v>12</v>
@@ -8993,7 +8990,7 @@
     </row>
     <row r="820">
       <c r="A820" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B820" t="s">
         <v>12</v>
@@ -9004,65 +9001,65 @@
     </row>
     <row r="821">
       <c r="A821" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B821" t="s">
         <v>12</v>
       </c>
       <c r="C821" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B822" t="s">
-        <v>12</v>
-      </c>
-      <c r="C822" t="s">
-        <v>256</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C822"/>
     </row>
     <row r="823">
       <c r="A823" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B823" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C823"/>
     </row>
     <row r="824">
       <c r="A824" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B824" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C824"/>
     </row>
     <row r="825">
       <c r="A825" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B825" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C825"/>
     </row>
     <row r="826">
       <c r="A826" t="s">
+        <v>256</v>
+      </c>
+      <c r="B826" t="s">
+        <v>8</v>
+      </c>
+      <c r="C826" t="s">
         <v>257</v>
       </c>
-      <c r="B826" t="s">
-        <v>7</v>
-      </c>
-      <c r="C826"/>
     </row>
     <row r="827">
       <c r="A827" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B827" t="s">
         <v>8</v>
@@ -9073,102 +9070,100 @@
     </row>
     <row r="828">
       <c r="A828" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B828" t="s">
-        <v>8</v>
-      </c>
-      <c r="C828" t="s">
-        <v>259</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C828"/>
     </row>
     <row r="829">
       <c r="A829" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B829" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C829"/>
     </row>
     <row r="830">
       <c r="A830" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B830" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C830"/>
     </row>
     <row r="831">
       <c r="A831" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B831" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C831"/>
     </row>
     <row r="832">
       <c r="A832" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B832" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C832"/>
     </row>
     <row r="833">
       <c r="A833" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B833" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C833"/>
     </row>
     <row r="834">
       <c r="A834" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B834" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C834"/>
     </row>
     <row r="835">
       <c r="A835" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B835" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C835"/>
     </row>
     <row r="836">
       <c r="A836" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B836" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C836"/>
     </row>
     <row r="837">
       <c r="A837" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B837" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C837"/>
     </row>
     <row r="838">
       <c r="A838" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B838" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C838"/>
     </row>
@@ -9177,80 +9172,82 @@
         <v>260</v>
       </c>
       <c r="B839" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C839"/>
     </row>
     <row r="840">
       <c r="A840" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B840" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C840"/>
     </row>
     <row r="841">
       <c r="A841" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B841" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C841"/>
     </row>
     <row r="842">
       <c r="A842" t="s">
+        <v>260</v>
+      </c>
+      <c r="B842" t="s">
+        <v>7</v>
+      </c>
+      <c r="C842" t="s">
         <v>261</v>
       </c>
-      <c r="B842" t="s">
-        <v>6</v>
-      </c>
-      <c r="C842"/>
     </row>
     <row r="843">
       <c r="A843" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B843" t="s">
-        <v>7</v>
-      </c>
-      <c r="C843" t="s">
-        <v>262</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C843"/>
     </row>
     <row r="844">
       <c r="A844" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B844" t="s">
-        <v>8</v>
-      </c>
-      <c r="C844"/>
+        <v>9</v>
+      </c>
+      <c r="C844" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B845" t="s">
-        <v>9</v>
-      </c>
-      <c r="C845" t="s">
-        <v>263</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C845"/>
     </row>
     <row r="846">
       <c r="A846" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B846" t="s">
-        <v>10</v>
-      </c>
-      <c r="C846"/>
+        <v>12</v>
+      </c>
+      <c r="C846" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B847" t="s">
         <v>12</v>
@@ -9261,7 +9258,7 @@
     </row>
     <row r="848">
       <c r="A848" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B848" t="s">
         <v>12</v>
@@ -9272,7 +9269,7 @@
     </row>
     <row r="849">
       <c r="A849" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B849" t="s">
         <v>12</v>
@@ -9283,7 +9280,7 @@
     </row>
     <row r="850">
       <c r="A850" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B850" t="s">
         <v>12</v>
@@ -9294,7 +9291,7 @@
     </row>
     <row r="851">
       <c r="A851" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B851" t="s">
         <v>12</v>
@@ -9305,7 +9302,7 @@
     </row>
     <row r="852">
       <c r="A852" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B852" t="s">
         <v>12</v>
@@ -9316,7 +9313,7 @@
     </row>
     <row r="853">
       <c r="A853" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B853" t="s">
         <v>12</v>
@@ -9327,7 +9324,7 @@
     </row>
     <row r="854">
       <c r="A854" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B854" t="s">
         <v>12</v>
@@ -9338,7 +9335,7 @@
     </row>
     <row r="855">
       <c r="A855" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B855" t="s">
         <v>12</v>
@@ -9349,81 +9346,81 @@
     </row>
     <row r="856">
       <c r="A856" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B856" t="s">
-        <v>12</v>
-      </c>
-      <c r="C856" t="s">
-        <v>273</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C856"/>
     </row>
     <row r="857">
       <c r="A857" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B857" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C857"/>
     </row>
     <row r="858">
       <c r="A858" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B858" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C858"/>
     </row>
     <row r="859">
       <c r="A859" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B859" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C859"/>
     </row>
     <row r="860">
       <c r="A860" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B860" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C860"/>
     </row>
     <row r="861">
       <c r="A861" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B861" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C861"/>
     </row>
     <row r="862">
       <c r="A862" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B862" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C862"/>
     </row>
     <row r="863">
       <c r="A863" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B863" t="s">
-        <v>10</v>
-      </c>
-      <c r="C863"/>
+        <v>12</v>
+      </c>
+      <c r="C863" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B864" t="s">
         <v>12</v>
@@ -9434,7 +9431,7 @@
     </row>
     <row r="865">
       <c r="A865" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B865" t="s">
         <v>12</v>
@@ -9445,7 +9442,7 @@
     </row>
     <row r="866">
       <c r="A866" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B866" t="s">
         <v>12</v>
@@ -9456,34 +9453,12 @@
     </row>
     <row r="867">
       <c r="A867" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B867" t="s">
         <v>12</v>
       </c>
       <c r="C867" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" t="s">
-        <v>274</v>
-      </c>
-      <c r="B868" t="s">
-        <v>12</v>
-      </c>
-      <c r="C868" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" t="s">
-        <v>274</v>
-      </c>
-      <c r="B869" t="s">
-        <v>12</v>
-      </c>
-      <c r="C869" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Keyword_Results.xlsx
+++ b/Keyword_Results.xlsx
@@ -446,9 +446,6 @@
     <t xml:space="preserve">https://www.kesslervogler.ch/</t>
   </si>
   <si>
-    <t xml:space="preserve">Temporärstelle</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://lagea.ch/</t>
   </si>
   <si>
@@ -485,7 +482,7 @@
     <t xml:space="preserve">":"Jobofferten Fest- und Temporärstellen | Bewerbungsunterlagen</t>
   </si>
   <si>
-    <t xml:space="preserve">","fields":{"title":{"value":"Temporäreinsätze"},"image":{"value</t>
+    <t xml:space="preserve">value":""},"title":{"value":"Temporäreinsätze"},"image":{"value</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.markritter.ch/</t>
@@ -561,6 +558,9 @@
   </si>
   <si>
     <t xml:space="preserve">Personalverleih / Try &amp; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporäre Anstellung</t>
   </si>
   <si>
     <t xml:space="preserve">https://portfolia.ch/</t>
@@ -2354,7 +2354,7 @@
         <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121">
@@ -2365,26 +2365,24 @@
         <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" t="s">
-        <v>45</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C123"/>
     </row>
@@ -2393,7 +2391,7 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124"/>
     </row>
@@ -2402,7 +2400,7 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125"/>
     </row>
@@ -2411,7 +2409,7 @@
         <v>47</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126"/>
     </row>
@@ -2420,7 +2418,7 @@
         <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127"/>
     </row>
@@ -2429,7 +2427,7 @@
         <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C128"/>
     </row>
@@ -2438,18 +2436,20 @@
         <v>47</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130"/>
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
@@ -2459,7 +2459,7 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132">
@@ -2467,10 +2467,10 @@
         <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133">
@@ -2478,18 +2478,16 @@
         <v>48</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" t="s">
-        <v>51</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C133"/>
     </row>
     <row r="134">
       <c r="A134" t="s">
         <v>48</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134"/>
     </row>
@@ -2498,7 +2496,7 @@
         <v>48</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135"/>
     </row>
@@ -2507,9 +2505,11 @@
         <v>48</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136"/>
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -2519,7 +2519,7 @@
         <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138">
@@ -2530,7 +2530,7 @@
         <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139">
@@ -2538,27 +2538,25 @@
         <v>48</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" t="s">
-        <v>54</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C139"/>
     </row>
     <row r="140">
       <c r="A140" t="s">
         <v>48</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C140"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C141"/>
     </row>
@@ -2567,7 +2565,7 @@
         <v>55</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C142"/>
     </row>
@@ -2576,7 +2574,7 @@
         <v>55</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143"/>
     </row>
@@ -2585,7 +2583,7 @@
         <v>55</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144"/>
     </row>
@@ -2594,7 +2592,7 @@
         <v>55</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145"/>
     </row>
@@ -2603,7 +2601,7 @@
         <v>55</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146"/>
     </row>
@@ -2612,7 +2610,7 @@
         <v>55</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C147"/>
     </row>
@@ -2621,16 +2619,16 @@
         <v>55</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C149"/>
     </row>
@@ -2639,7 +2637,7 @@
         <v>56</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C150"/>
     </row>
@@ -2648,7 +2646,7 @@
         <v>56</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151"/>
     </row>
@@ -2657,7 +2655,7 @@
         <v>56</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152"/>
     </row>
@@ -2666,7 +2664,7 @@
         <v>56</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153"/>
     </row>
@@ -2675,7 +2673,7 @@
         <v>56</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154"/>
     </row>
@@ -2684,7 +2682,7 @@
         <v>56</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C155"/>
     </row>
@@ -2693,18 +2691,20 @@
         <v>56</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C156"/>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157"/>
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -2722,18 +2722,16 @@
         <v>57</v>
       </c>
       <c r="B159" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" t="s">
-        <v>58</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C159"/>
     </row>
     <row r="160">
       <c r="A160" t="s">
         <v>57</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160"/>
     </row>
@@ -2742,9 +2740,11 @@
         <v>57</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161"/>
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -2762,18 +2762,16 @@
         <v>57</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" t="s">
-        <v>59</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
         <v>57</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164"/>
     </row>
@@ -2782,7 +2780,7 @@
         <v>57</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C165"/>
     </row>
@@ -2791,18 +2789,20 @@
         <v>57</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C166"/>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167"/>
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
@@ -2812,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169">
@@ -2823,7 +2823,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170">
@@ -2831,18 +2831,16 @@
         <v>60</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" t="s">
-        <v>63</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
         <v>60</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171"/>
     </row>
@@ -2851,7 +2849,7 @@
         <v>60</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172"/>
     </row>
@@ -2860,9 +2858,11 @@
         <v>60</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173"/>
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
@@ -2872,7 +2872,7 @@
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175">
@@ -2883,7 +2883,7 @@
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176">
@@ -2894,7 +2894,7 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177">
@@ -2902,18 +2902,16 @@
         <v>60</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" t="s">
-        <v>66</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C177"/>
     </row>
     <row r="178">
       <c r="A178" t="s">
         <v>60</v>
       </c>
       <c r="B178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C178"/>
     </row>
@@ -2922,16 +2920,16 @@
         <v>60</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C179"/>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C180"/>
     </row>
@@ -2940,7 +2938,7 @@
         <v>67</v>
       </c>
       <c r="B181" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C181"/>
     </row>
@@ -2949,7 +2947,7 @@
         <v>67</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182"/>
     </row>
@@ -2958,7 +2956,7 @@
         <v>67</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183"/>
     </row>
@@ -2967,7 +2965,7 @@
         <v>67</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184"/>
     </row>
@@ -2976,7 +2974,7 @@
         <v>67</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185"/>
     </row>
@@ -2985,7 +2983,7 @@
         <v>67</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C186"/>
     </row>
@@ -2994,16 +2992,16 @@
         <v>67</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C187"/>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C188"/>
     </row>
@@ -3012,7 +3010,7 @@
         <v>68</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C189"/>
     </row>
@@ -3021,19 +3019,21 @@
         <v>68</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190"/>
+        <v>6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
         <v>68</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="192">
@@ -3044,7 +3044,7 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="193">
@@ -3052,18 +3052,16 @@
         <v>68</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
-      </c>
-      <c r="C193" t="s">
-        <v>71</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C193"/>
     </row>
     <row r="194">
       <c r="A194" t="s">
         <v>68</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194"/>
     </row>
@@ -3072,7 +3070,7 @@
         <v>68</v>
       </c>
       <c r="B195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C195"/>
     </row>
@@ -3081,27 +3079,27 @@
         <v>68</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
-      </c>
-      <c r="C196"/>
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" t="s">
-        <v>72</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C197"/>
     </row>
     <row r="198">
       <c r="A198" t="s">
         <v>73</v>
       </c>
       <c r="B198" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C198"/>
     </row>
@@ -3110,7 +3108,7 @@
         <v>73</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199"/>
     </row>
@@ -3119,7 +3117,7 @@
         <v>73</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200"/>
     </row>
@@ -3128,7 +3126,7 @@
         <v>73</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201"/>
     </row>
@@ -3137,7 +3135,7 @@
         <v>73</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202"/>
     </row>
@@ -3146,7 +3144,7 @@
         <v>73</v>
       </c>
       <c r="B203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C203"/>
     </row>
@@ -3155,9 +3153,11 @@
         <v>73</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
-      </c>
-      <c r="C204"/>
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
@@ -3167,7 +3167,7 @@
         <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="206">
@@ -3178,26 +3178,24 @@
         <v>12</v>
       </c>
       <c r="C206" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" t="s">
-        <v>76</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C207"/>
     </row>
     <row r="208">
       <c r="A208" t="s">
         <v>77</v>
       </c>
       <c r="B208" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C208"/>
     </row>
@@ -3206,7 +3204,7 @@
         <v>77</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209"/>
     </row>
@@ -3215,7 +3213,7 @@
         <v>77</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C210"/>
     </row>
@@ -3224,9 +3222,11 @@
         <v>77</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211"/>
+        <v>8</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
@@ -3247,7 +3247,7 @@
         <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="214">
@@ -3258,7 +3258,7 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="215">
@@ -3266,18 +3266,16 @@
         <v>77</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" t="s">
-        <v>79</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C215"/>
     </row>
     <row r="216">
       <c r="A216" t="s">
         <v>77</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C216"/>
     </row>
@@ -3286,18 +3284,20 @@
         <v>77</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C217"/>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
-      </c>
-      <c r="C218"/>
+        <v>4</v>
+      </c>
+      <c r="C218" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
@@ -3307,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="220">
@@ -3318,7 +3318,7 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="221">
@@ -3329,7 +3329,7 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="222">
@@ -3340,7 +3340,7 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="223">
@@ -3359,10 +3359,10 @@
         <v>80</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225">
@@ -3381,18 +3381,16 @@
         <v>80</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
-      </c>
-      <c r="C226" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C226"/>
     </row>
     <row r="227">
       <c r="A227" t="s">
         <v>80</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227"/>
     </row>
@@ -3401,9 +3399,11 @@
         <v>80</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228"/>
+        <v>8</v>
+      </c>
+      <c r="C228" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
@@ -3413,7 +3413,7 @@
         <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="230">
@@ -3424,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231">
@@ -3432,18 +3432,16 @@
         <v>80</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
-      </c>
-      <c r="C231" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C231"/>
     </row>
     <row r="232">
       <c r="A232" t="s">
         <v>80</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C232"/>
     </row>
@@ -3452,16 +3450,16 @@
         <v>80</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C233"/>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C234"/>
     </row>
@@ -3470,7 +3468,7 @@
         <v>85</v>
       </c>
       <c r="B235" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C235"/>
     </row>
@@ -3479,7 +3477,7 @@
         <v>85</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236"/>
     </row>
@@ -3488,7 +3486,7 @@
         <v>85</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237"/>
     </row>
@@ -3497,27 +3495,27 @@
         <v>85</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
-      </c>
-      <c r="C238"/>
+        <v>8</v>
+      </c>
+      <c r="C238" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
         <v>85</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
-      </c>
-      <c r="C239" t="s">
-        <v>86</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C239"/>
     </row>
     <row r="240">
       <c r="A240" t="s">
         <v>85</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C240"/>
     </row>
@@ -3526,18 +3524,20 @@
         <v>85</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C241"/>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
-      </c>
-      <c r="C242"/>
+        <v>4</v>
+      </c>
+      <c r="C242" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
@@ -3547,7 +3547,7 @@
         <v>4</v>
       </c>
       <c r="C243" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="244">
@@ -3558,7 +3558,7 @@
         <v>4</v>
       </c>
       <c r="C244" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245">
@@ -3569,7 +3569,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="246">
@@ -3577,18 +3577,16 @@
         <v>87</v>
       </c>
       <c r="B246" t="s">
-        <v>4</v>
-      </c>
-      <c r="C246" t="s">
-        <v>89</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C246"/>
     </row>
     <row r="247">
       <c r="A247" t="s">
         <v>87</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247"/>
     </row>
@@ -3597,7 +3595,7 @@
         <v>87</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248"/>
     </row>
@@ -3606,7 +3604,7 @@
         <v>87</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249"/>
     </row>
@@ -3615,7 +3613,7 @@
         <v>87</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C250"/>
     </row>
@@ -3624,7 +3622,7 @@
         <v>87</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C251"/>
     </row>
@@ -3633,16 +3631,16 @@
         <v>87</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C252"/>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C253"/>
     </row>
@@ -3651,7 +3649,7 @@
         <v>91</v>
       </c>
       <c r="B254" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C254"/>
     </row>
@@ -3660,7 +3658,7 @@
         <v>91</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255"/>
     </row>
@@ -3669,7 +3667,7 @@
         <v>91</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256"/>
     </row>
@@ -3678,7 +3676,7 @@
         <v>91</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257"/>
     </row>
@@ -3687,7 +3685,7 @@
         <v>91</v>
       </c>
       <c r="B258" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C258"/>
     </row>
@@ -3696,7 +3694,7 @@
         <v>91</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C259"/>
     </row>
@@ -3705,9 +3703,11 @@
         <v>91</v>
       </c>
       <c r="B260" t="s">
-        <v>10</v>
-      </c>
-      <c r="C260"/>
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
@@ -3717,7 +3717,7 @@
         <v>12</v>
       </c>
       <c r="C261" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="262">
@@ -3728,7 +3728,7 @@
         <v>12</v>
       </c>
       <c r="C262" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="263">
@@ -3739,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="264">
@@ -3750,7 +3750,7 @@
         <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="265">
@@ -3761,7 +3761,7 @@
         <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="266">
@@ -3772,7 +3772,7 @@
         <v>12</v>
       </c>
       <c r="C266" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="267">
@@ -3783,7 +3783,7 @@
         <v>12</v>
       </c>
       <c r="C267" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="268">
@@ -3794,7 +3794,7 @@
         <v>12</v>
       </c>
       <c r="C268" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="269">
@@ -3805,7 +3805,7 @@
         <v>12</v>
       </c>
       <c r="C269" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="270">
@@ -3816,26 +3816,24 @@
         <v>12</v>
       </c>
       <c r="C270" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
-      </c>
-      <c r="C271" t="s">
-        <v>98</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
         <v>99</v>
       </c>
       <c r="B272" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C272"/>
     </row>
@@ -3844,7 +3842,7 @@
         <v>99</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C273"/>
     </row>
@@ -3853,7 +3851,7 @@
         <v>99</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C274"/>
     </row>
@@ -3862,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="B275" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C275"/>
     </row>
@@ -3871,7 +3869,7 @@
         <v>99</v>
       </c>
       <c r="B276" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C276"/>
     </row>
@@ -3880,7 +3878,7 @@
         <v>99</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C277"/>
     </row>
@@ -3889,27 +3887,27 @@
         <v>99</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
-      </c>
-      <c r="C278"/>
+        <v>12</v>
+      </c>
+      <c r="C278" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B279" t="s">
-        <v>12</v>
-      </c>
-      <c r="C279" t="s">
-        <v>100</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C279"/>
     </row>
     <row r="280">
       <c r="A280" t="s">
         <v>101</v>
       </c>
       <c r="B280" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C280"/>
     </row>
@@ -3918,7 +3916,7 @@
         <v>101</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C281"/>
     </row>
@@ -3927,7 +3925,7 @@
         <v>101</v>
       </c>
       <c r="B282" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C282"/>
     </row>
@@ -3936,7 +3934,7 @@
         <v>101</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C283"/>
     </row>
@@ -3945,7 +3943,7 @@
         <v>101</v>
       </c>
       <c r="B284" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C284"/>
     </row>
@@ -3954,7 +3952,7 @@
         <v>101</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C285"/>
     </row>
@@ -3963,16 +3961,16 @@
         <v>101</v>
       </c>
       <c r="B286" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C286"/>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C287"/>
     </row>
@@ -3981,7 +3979,7 @@
         <v>102</v>
       </c>
       <c r="B288" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C288"/>
     </row>
@@ -3990,7 +3988,7 @@
         <v>102</v>
       </c>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C289"/>
     </row>
@@ -3999,7 +3997,7 @@
         <v>102</v>
       </c>
       <c r="B290" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C290"/>
     </row>
@@ -4008,27 +4006,27 @@
         <v>102</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
-      </c>
-      <c r="C291"/>
+        <v>8</v>
+      </c>
+      <c r="C291" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
         <v>102</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
-      </c>
-      <c r="C292" t="s">
-        <v>103</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C292"/>
     </row>
     <row r="293">
       <c r="A293" t="s">
         <v>102</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C293"/>
     </row>
@@ -4037,16 +4035,16 @@
         <v>102</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C294"/>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C295"/>
     </row>
@@ -4055,7 +4053,7 @@
         <v>104</v>
       </c>
       <c r="B296" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C296"/>
     </row>
@@ -4064,7 +4062,7 @@
         <v>104</v>
       </c>
       <c r="B297" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C297"/>
     </row>
@@ -4073,7 +4071,7 @@
         <v>104</v>
       </c>
       <c r="B298" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C298"/>
     </row>
@@ -4082,7 +4080,7 @@
         <v>104</v>
       </c>
       <c r="B299" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C299"/>
     </row>
@@ -4091,7 +4089,7 @@
         <v>104</v>
       </c>
       <c r="B300" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C300"/>
     </row>
@@ -4100,7 +4098,7 @@
         <v>104</v>
       </c>
       <c r="B301" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C301"/>
     </row>
@@ -4109,16 +4107,16 @@
         <v>104</v>
       </c>
       <c r="B302" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C302"/>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C303"/>
     </row>
@@ -4127,7 +4125,7 @@
         <v>105</v>
       </c>
       <c r="B304" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C304"/>
     </row>
@@ -4136,7 +4134,7 @@
         <v>105</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C305"/>
     </row>
@@ -4145,7 +4143,7 @@
         <v>105</v>
       </c>
       <c r="B306" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C306"/>
     </row>
@@ -4154,9 +4152,11 @@
         <v>105</v>
       </c>
       <c r="B307" t="s">
-        <v>7</v>
-      </c>
-      <c r="C307"/>
+        <v>8</v>
+      </c>
+      <c r="C307" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -4166,7 +4166,7 @@
         <v>8</v>
       </c>
       <c r="C308" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="309">
@@ -4174,18 +4174,16 @@
         <v>105</v>
       </c>
       <c r="B309" t="s">
-        <v>8</v>
-      </c>
-      <c r="C309" t="s">
-        <v>107</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C309"/>
     </row>
     <row r="310">
       <c r="A310" t="s">
         <v>105</v>
       </c>
       <c r="B310" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C310"/>
     </row>
@@ -4194,18 +4192,20 @@
         <v>105</v>
       </c>
       <c r="B311" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C311"/>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
-      </c>
-      <c r="C312"/>
+        <v>4</v>
+      </c>
+      <c r="C312" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
@@ -4223,18 +4223,16 @@
         <v>108</v>
       </c>
       <c r="B314" t="s">
-        <v>4</v>
-      </c>
-      <c r="C314" t="s">
-        <v>58</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C314"/>
     </row>
     <row r="315">
       <c r="A315" t="s">
         <v>108</v>
       </c>
       <c r="B315" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C315"/>
     </row>
@@ -4243,7 +4241,7 @@
         <v>108</v>
       </c>
       <c r="B316" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C316"/>
     </row>
@@ -4252,7 +4250,7 @@
         <v>108</v>
       </c>
       <c r="B317" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C317"/>
     </row>
@@ -4261,36 +4259,36 @@
         <v>108</v>
       </c>
       <c r="B318" t="s">
-        <v>8</v>
-      </c>
-      <c r="C318"/>
+        <v>9</v>
+      </c>
+      <c r="C318" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
         <v>108</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
-      </c>
-      <c r="C319" t="s">
-        <v>109</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C319"/>
     </row>
     <row r="320">
       <c r="A320" t="s">
         <v>108</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C320"/>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B321" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C321"/>
     </row>
@@ -4299,7 +4297,7 @@
         <v>110</v>
       </c>
       <c r="B322" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C322"/>
     </row>
@@ -4308,7 +4306,7 @@
         <v>110</v>
       </c>
       <c r="B323" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C323"/>
     </row>
@@ -4317,7 +4315,7 @@
         <v>110</v>
       </c>
       <c r="B324" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C324"/>
     </row>
@@ -4326,7 +4324,7 @@
         <v>110</v>
       </c>
       <c r="B325" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C325"/>
     </row>
@@ -4335,7 +4333,7 @@
         <v>110</v>
       </c>
       <c r="B326" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C326"/>
     </row>
@@ -4344,7 +4342,7 @@
         <v>110</v>
       </c>
       <c r="B327" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C327"/>
     </row>
@@ -4353,16 +4351,16 @@
         <v>110</v>
       </c>
       <c r="B328" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C328"/>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B329" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C329"/>
     </row>
@@ -4371,7 +4369,7 @@
         <v>111</v>
       </c>
       <c r="B330" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C330"/>
     </row>
@@ -4380,7 +4378,7 @@
         <v>111</v>
       </c>
       <c r="B331" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C331"/>
     </row>
@@ -4389,7 +4387,7 @@
         <v>111</v>
       </c>
       <c r="B332" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C332"/>
     </row>
@@ -4398,7 +4396,7 @@
         <v>111</v>
       </c>
       <c r="B333" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C333"/>
     </row>
@@ -4407,7 +4405,7 @@
         <v>111</v>
       </c>
       <c r="B334" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C334"/>
     </row>
@@ -4416,7 +4414,7 @@
         <v>111</v>
       </c>
       <c r="B335" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C335"/>
     </row>
@@ -4425,28 +4423,30 @@
         <v>111</v>
       </c>
       <c r="B336" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C336"/>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
-      </c>
-      <c r="C337"/>
+        <v>4</v>
+      </c>
+      <c r="C337" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
         <v>112</v>
       </c>
       <c r="B338" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C338" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="339">
@@ -4454,18 +4454,16 @@
         <v>112</v>
       </c>
       <c r="B339" t="s">
-        <v>5</v>
-      </c>
-      <c r="C339" t="s">
-        <v>114</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C339"/>
     </row>
     <row r="340">
       <c r="A340" t="s">
         <v>112</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C340"/>
     </row>
@@ -4474,7 +4472,7 @@
         <v>112</v>
       </c>
       <c r="B341" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C341"/>
     </row>
@@ -4483,7 +4481,7 @@
         <v>112</v>
       </c>
       <c r="B342" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C342"/>
     </row>
@@ -4492,7 +4490,7 @@
         <v>112</v>
       </c>
       <c r="B343" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C343"/>
     </row>
@@ -4501,16 +4499,16 @@
         <v>112</v>
       </c>
       <c r="B344" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C344"/>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B345" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C345"/>
     </row>
@@ -4519,7 +4517,7 @@
         <v>115</v>
       </c>
       <c r="B346" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C346"/>
     </row>
@@ -4528,7 +4526,7 @@
         <v>115</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C347"/>
     </row>
@@ -4537,7 +4535,7 @@
         <v>115</v>
       </c>
       <c r="B348" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C348"/>
     </row>
@@ -4546,7 +4544,7 @@
         <v>115</v>
       </c>
       <c r="B349" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C349"/>
     </row>
@@ -4555,7 +4553,7 @@
         <v>115</v>
       </c>
       <c r="B350" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C350"/>
     </row>
@@ -4564,7 +4562,7 @@
         <v>115</v>
       </c>
       <c r="B351" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C351"/>
     </row>
@@ -4573,16 +4571,16 @@
         <v>115</v>
       </c>
       <c r="B352" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C352"/>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B353" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C353"/>
     </row>
@@ -4591,7 +4589,7 @@
         <v>116</v>
       </c>
       <c r="B354" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C354"/>
     </row>
@@ -4600,7 +4598,7 @@
         <v>116</v>
       </c>
       <c r="B355" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C355"/>
     </row>
@@ -4609,7 +4607,7 @@
         <v>116</v>
       </c>
       <c r="B356" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C356"/>
     </row>
@@ -4618,27 +4616,27 @@
         <v>116</v>
       </c>
       <c r="B357" t="s">
-        <v>7</v>
-      </c>
-      <c r="C357"/>
+        <v>8</v>
+      </c>
+      <c r="C357" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
         <v>116</v>
       </c>
       <c r="B358" t="s">
-        <v>8</v>
-      </c>
-      <c r="C358" t="s">
-        <v>117</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C358"/>
     </row>
     <row r="359">
       <c r="A359" t="s">
         <v>116</v>
       </c>
       <c r="B359" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C359"/>
     </row>
@@ -4647,16 +4645,16 @@
         <v>116</v>
       </c>
       <c r="B360" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C360"/>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C361"/>
     </row>
@@ -4665,7 +4663,7 @@
         <v>118</v>
       </c>
       <c r="B362" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C362"/>
     </row>
@@ -4674,7 +4672,7 @@
         <v>118</v>
       </c>
       <c r="B363" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C363"/>
     </row>
@@ -4683,27 +4681,27 @@
         <v>118</v>
       </c>
       <c r="B364" t="s">
-        <v>6</v>
-      </c>
-      <c r="C364"/>
+        <v>7</v>
+      </c>
+      <c r="C364" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
         <v>118</v>
       </c>
       <c r="B365" t="s">
-        <v>7</v>
-      </c>
-      <c r="C365" t="s">
-        <v>119</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C365"/>
     </row>
     <row r="366">
       <c r="A366" t="s">
         <v>118</v>
       </c>
       <c r="B366" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C366"/>
     </row>
@@ -4712,7 +4710,7 @@
         <v>118</v>
       </c>
       <c r="B367" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C367"/>
     </row>
@@ -4721,18 +4719,20 @@
         <v>118</v>
       </c>
       <c r="B368" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C368"/>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B369" t="s">
-        <v>12</v>
-      </c>
-      <c r="C369"/>
+        <v>4</v>
+      </c>
+      <c r="C369" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
@@ -4750,18 +4750,16 @@
         <v>120</v>
       </c>
       <c r="B371" t="s">
-        <v>4</v>
-      </c>
-      <c r="C371" t="s">
-        <v>58</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C371"/>
     </row>
     <row r="372">
       <c r="A372" t="s">
         <v>120</v>
       </c>
       <c r="B372" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C372"/>
     </row>
@@ -4770,7 +4768,7 @@
         <v>120</v>
       </c>
       <c r="B373" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C373"/>
     </row>
@@ -4779,7 +4777,7 @@
         <v>120</v>
       </c>
       <c r="B374" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C374"/>
     </row>
@@ -4788,7 +4786,7 @@
         <v>120</v>
       </c>
       <c r="B375" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C375"/>
     </row>
@@ -4797,7 +4795,7 @@
         <v>120</v>
       </c>
       <c r="B376" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C376"/>
     </row>
@@ -4806,16 +4804,16 @@
         <v>120</v>
       </c>
       <c r="B377" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C377"/>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B378" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C378"/>
     </row>
@@ -4824,7 +4822,7 @@
         <v>121</v>
       </c>
       <c r="B379" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C379"/>
     </row>
@@ -4833,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="B380" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C380"/>
     </row>
@@ -4842,7 +4840,7 @@
         <v>121</v>
       </c>
       <c r="B381" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C381"/>
     </row>
@@ -4851,7 +4849,7 @@
         <v>121</v>
       </c>
       <c r="B382" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C382"/>
     </row>
@@ -4860,7 +4858,7 @@
         <v>121</v>
       </c>
       <c r="B383" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C383"/>
     </row>
@@ -4869,7 +4867,7 @@
         <v>121</v>
       </c>
       <c r="B384" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C384"/>
     </row>
@@ -4878,36 +4876,36 @@
         <v>121</v>
       </c>
       <c r="B385" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C385"/>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B386" t="s">
-        <v>12</v>
-      </c>
-      <c r="C386"/>
+        <v>4</v>
+      </c>
+      <c r="C386" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
         <v>122</v>
       </c>
       <c r="B387" t="s">
-        <v>4</v>
-      </c>
-      <c r="C387" t="s">
-        <v>123</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C387"/>
     </row>
     <row r="388">
       <c r="A388" t="s">
         <v>122</v>
       </c>
       <c r="B388" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C388"/>
     </row>
@@ -4916,7 +4914,7 @@
         <v>122</v>
       </c>
       <c r="B389" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C389"/>
     </row>
@@ -4925,9 +4923,11 @@
         <v>122</v>
       </c>
       <c r="B390" t="s">
-        <v>7</v>
-      </c>
-      <c r="C390"/>
+        <v>8</v>
+      </c>
+      <c r="C390" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
@@ -4948,7 +4948,7 @@
         <v>8</v>
       </c>
       <c r="C392" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="393">
@@ -4959,7 +4959,7 @@
         <v>8</v>
       </c>
       <c r="C393" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="394">
@@ -4970,7 +4970,7 @@
         <v>8</v>
       </c>
       <c r="C394" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395">
@@ -5022,18 +5022,16 @@
         <v>122</v>
       </c>
       <c r="B399" t="s">
-        <v>8</v>
-      </c>
-      <c r="C399" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C399"/>
     </row>
     <row r="400">
       <c r="A400" t="s">
         <v>122</v>
       </c>
       <c r="B400" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C400"/>
     </row>
@@ -5042,18 +5040,20 @@
         <v>122</v>
       </c>
       <c r="B401" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C401"/>
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B402" t="s">
-        <v>12</v>
-      </c>
-      <c r="C402"/>
+        <v>4</v>
+      </c>
+      <c r="C402" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
@@ -5063,7 +5063,7 @@
         <v>4</v>
       </c>
       <c r="C403" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="404">
@@ -5071,18 +5071,16 @@
         <v>126</v>
       </c>
       <c r="B404" t="s">
-        <v>4</v>
-      </c>
-      <c r="C404" t="s">
-        <v>128</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C404"/>
     </row>
     <row r="405">
       <c r="A405" t="s">
         <v>126</v>
       </c>
       <c r="B405" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C405"/>
     </row>
@@ -5091,7 +5089,7 @@
         <v>126</v>
       </c>
       <c r="B406" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C406"/>
     </row>
@@ -5100,7 +5098,7 @@
         <v>126</v>
       </c>
       <c r="B407" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C407"/>
     </row>
@@ -5109,7 +5107,7 @@
         <v>126</v>
       </c>
       <c r="B408" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C408"/>
     </row>
@@ -5118,7 +5116,7 @@
         <v>126</v>
       </c>
       <c r="B409" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C409"/>
     </row>
@@ -5127,16 +5125,16 @@
         <v>126</v>
       </c>
       <c r="B410" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C410"/>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B411" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C411"/>
     </row>
@@ -5145,7 +5143,7 @@
         <v>129</v>
       </c>
       <c r="B412" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C412"/>
     </row>
@@ -5154,7 +5152,7 @@
         <v>129</v>
       </c>
       <c r="B413" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C413"/>
     </row>
@@ -5163,27 +5161,27 @@
         <v>129</v>
       </c>
       <c r="B414" t="s">
-        <v>6</v>
-      </c>
-      <c r="C414"/>
+        <v>7</v>
+      </c>
+      <c r="C414" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
         <v>129</v>
       </c>
       <c r="B415" t="s">
-        <v>7</v>
-      </c>
-      <c r="C415" t="s">
-        <v>130</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C415"/>
     </row>
     <row r="416">
       <c r="A416" t="s">
         <v>129</v>
       </c>
       <c r="B416" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C416"/>
     </row>
@@ -5192,7 +5190,7 @@
         <v>129</v>
       </c>
       <c r="B417" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C417"/>
     </row>
@@ -5201,9 +5199,11 @@
         <v>129</v>
       </c>
       <c r="B418" t="s">
-        <v>10</v>
-      </c>
-      <c r="C418"/>
+        <v>12</v>
+      </c>
+      <c r="C418" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
@@ -5213,7 +5213,7 @@
         <v>12</v>
       </c>
       <c r="C419" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="420">
@@ -5224,26 +5224,24 @@
         <v>12</v>
       </c>
       <c r="C420" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B421" t="s">
-        <v>12</v>
-      </c>
-      <c r="C421" t="s">
-        <v>133</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C421"/>
     </row>
     <row r="422">
       <c r="A422" t="s">
         <v>134</v>
       </c>
       <c r="B422" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C422"/>
     </row>
@@ -5252,7 +5250,7 @@
         <v>134</v>
       </c>
       <c r="B423" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C423"/>
     </row>
@@ -5261,7 +5259,7 @@
         <v>134</v>
       </c>
       <c r="B424" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C424"/>
     </row>
@@ -5270,7 +5268,7 @@
         <v>134</v>
       </c>
       <c r="B425" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C425"/>
     </row>
@@ -5279,7 +5277,7 @@
         <v>134</v>
       </c>
       <c r="B426" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C426"/>
     </row>
@@ -5288,7 +5286,7 @@
         <v>134</v>
       </c>
       <c r="B427" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C427"/>
     </row>
@@ -5297,16 +5295,16 @@
         <v>134</v>
       </c>
       <c r="B428" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C428"/>
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B429" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C429"/>
     </row>
@@ -5315,7 +5313,7 @@
         <v>135</v>
       </c>
       <c r="B430" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C430"/>
     </row>
@@ -5324,7 +5322,7 @@
         <v>135</v>
       </c>
       <c r="B431" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C431"/>
     </row>
@@ -5333,7 +5331,7 @@
         <v>135</v>
       </c>
       <c r="B432" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C432"/>
     </row>
@@ -5342,7 +5340,7 @@
         <v>135</v>
       </c>
       <c r="B433" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C433"/>
     </row>
@@ -5351,7 +5349,7 @@
         <v>135</v>
       </c>
       <c r="B434" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C434"/>
     </row>
@@ -5360,7 +5358,7 @@
         <v>135</v>
       </c>
       <c r="B435" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C435"/>
     </row>
@@ -5369,36 +5367,36 @@
         <v>135</v>
       </c>
       <c r="B436" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C436"/>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B437" t="s">
-        <v>12</v>
-      </c>
-      <c r="C437"/>
+        <v>4</v>
+      </c>
+      <c r="C437" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
         <v>136</v>
       </c>
       <c r="B438" t="s">
-        <v>4</v>
-      </c>
-      <c r="C438" t="s">
-        <v>137</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C438"/>
     </row>
     <row r="439">
       <c r="A439" t="s">
         <v>136</v>
       </c>
       <c r="B439" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C439"/>
     </row>
@@ -5407,7 +5405,7 @@
         <v>136</v>
       </c>
       <c r="B440" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C440"/>
     </row>
@@ -5416,7 +5414,7 @@
         <v>136</v>
       </c>
       <c r="B441" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C441"/>
     </row>
@@ -5425,7 +5423,7 @@
         <v>136</v>
       </c>
       <c r="B442" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C442"/>
     </row>
@@ -5434,9 +5432,11 @@
         <v>136</v>
       </c>
       <c r="B443" t="s">
-        <v>9</v>
-      </c>
-      <c r="C443"/>
+        <v>10</v>
+      </c>
+      <c r="C443" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
@@ -5446,7 +5446,7 @@
         <v>10</v>
       </c>
       <c r="C444" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="445">
@@ -5454,18 +5454,16 @@
         <v>136</v>
       </c>
       <c r="B445" t="s">
-        <v>10</v>
-      </c>
-      <c r="C445" t="s">
-        <v>139</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C445"/>
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B446" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C446"/>
     </row>
@@ -5474,7 +5472,7 @@
         <v>140</v>
       </c>
       <c r="B447" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C447"/>
     </row>
@@ -5483,7 +5481,7 @@
         <v>140</v>
       </c>
       <c r="B448" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C448"/>
     </row>
@@ -5492,7 +5490,7 @@
         <v>140</v>
       </c>
       <c r="B449" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C449"/>
     </row>
@@ -5501,7 +5499,7 @@
         <v>140</v>
       </c>
       <c r="B450" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C450"/>
     </row>
@@ -5510,7 +5508,7 @@
         <v>140</v>
       </c>
       <c r="B451" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C451"/>
     </row>
@@ -5519,7 +5517,7 @@
         <v>140</v>
       </c>
       <c r="B452" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C452"/>
     </row>
@@ -5528,9 +5526,11 @@
         <v>140</v>
       </c>
       <c r="B453" t="s">
-        <v>10</v>
-      </c>
-      <c r="C453"/>
+        <v>12</v>
+      </c>
+      <c r="C453" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
@@ -5540,26 +5540,24 @@
         <v>12</v>
       </c>
       <c r="C454" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B455" t="s">
-        <v>12</v>
-      </c>
-      <c r="C455" t="s">
-        <v>142</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C455"/>
     </row>
     <row r="456">
       <c r="A456" t="s">
         <v>143</v>
       </c>
       <c r="B456" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C456"/>
     </row>
@@ -5568,7 +5566,7 @@
         <v>143</v>
       </c>
       <c r="B457" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C457"/>
     </row>
@@ -5577,27 +5575,27 @@
         <v>143</v>
       </c>
       <c r="B458" t="s">
-        <v>6</v>
-      </c>
-      <c r="C458"/>
+        <v>7</v>
+      </c>
+      <c r="C458" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
         <v>143</v>
       </c>
       <c r="B459" t="s">
-        <v>7</v>
-      </c>
-      <c r="C459" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C459"/>
     </row>
     <row r="460">
       <c r="A460" t="s">
         <v>143</v>
       </c>
       <c r="B460" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C460"/>
     </row>
@@ -5606,7 +5604,7 @@
         <v>143</v>
       </c>
       <c r="B461" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C461"/>
     </row>
@@ -5615,81 +5613,79 @@
         <v>143</v>
       </c>
       <c r="B462" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C462"/>
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B463" t="s">
-        <v>12</v>
-      </c>
-      <c r="C463" t="s">
-        <v>144</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C463"/>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B464" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C464"/>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B465" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C465"/>
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B466" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C466"/>
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B467" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C467"/>
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B468" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C468"/>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B469" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C469"/>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B470" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C470"/>
     </row>
@@ -5698,70 +5694,70 @@
         <v>145</v>
       </c>
       <c r="B471" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C471"/>
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B472" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C472"/>
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B473" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C473"/>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B474" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C474"/>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B475" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C475"/>
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B476" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C476"/>
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B477" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C477"/>
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B478" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C478"/>
     </row>
@@ -5770,70 +5766,70 @@
         <v>146</v>
       </c>
       <c r="B479" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C479"/>
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B480" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C480"/>
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B481" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C481"/>
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B482" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C482"/>
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B483" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C483"/>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B484" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C484"/>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B485" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C485"/>
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B486" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C486"/>
     </row>
@@ -5842,69 +5838,71 @@
         <v>147</v>
       </c>
       <c r="B487" t="s">
-        <v>12</v>
-      </c>
-      <c r="C487"/>
+        <v>4</v>
+      </c>
+      <c r="C487" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B488" t="s">
-        <v>4</v>
-      </c>
-      <c r="C488" t="s">
-        <v>149</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C488"/>
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B489" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C489"/>
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B490" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C490"/>
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B491" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C491"/>
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B492" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C492"/>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B493" t="s">
-        <v>9</v>
-      </c>
-      <c r="C493"/>
+        <v>10</v>
+      </c>
+      <c r="C493" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B494" t="s">
         <v>10</v>
@@ -5915,7 +5913,7 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B495" t="s">
         <v>10</v>
@@ -5926,10 +5924,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B496" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C496" t="s">
         <v>152</v>
@@ -5937,7 +5935,7 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B497" t="s">
         <v>12</v>
@@ -5948,29 +5946,29 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B498" t="s">
         <v>12</v>
       </c>
       <c r="C498" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B499" t="s">
         <v>12</v>
       </c>
       <c r="C499" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B500" t="s">
         <v>12</v>
@@ -5981,7 +5979,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B501" t="s">
         <v>12</v>
@@ -5992,7 +5990,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B502" t="s">
         <v>12</v>
@@ -6003,93 +6001,91 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B503" t="s">
         <v>12</v>
       </c>
       <c r="C503" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>148</v>
-      </c>
-      <c r="B504" t="s">
-        <v>12</v>
-      </c>
-      <c r="C504" t="s">
         <v>157</v>
       </c>
+      <c r="B504"/>
+      <c r="C504"/>
     </row>
     <row r="505">
       <c r="A505" t="s">
         <v>158</v>
       </c>
-      <c r="B505"/>
+      <c r="B505" t="s">
+        <v>4</v>
+      </c>
       <c r="C505"/>
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B506" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B507" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B508" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C508"/>
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B509" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B510" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B511" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B512" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C512"/>
     </row>
@@ -6098,70 +6094,70 @@
         <v>159</v>
       </c>
       <c r="B513" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B514" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B515" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B516" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B517" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B518" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B519" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C519"/>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B520" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C520"/>
     </row>
@@ -6170,70 +6166,70 @@
         <v>160</v>
       </c>
       <c r="B521" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C521"/>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B522" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C522"/>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B523" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C523"/>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B524" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C524"/>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B525" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C525"/>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B526" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C526"/>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B527" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C527"/>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B528" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C528"/>
     </row>
@@ -6242,70 +6238,70 @@
         <v>161</v>
       </c>
       <c r="B529" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C529"/>
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B530" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C530"/>
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B531" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C531"/>
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B532" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C532"/>
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B533" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C533"/>
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B534" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C534"/>
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B535" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C535"/>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B536" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C536"/>
     </row>
@@ -6314,76 +6310,78 @@
         <v>162</v>
       </c>
       <c r="B537" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C537"/>
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B538" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C538"/>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B539" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C539"/>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B540" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C540"/>
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B541" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C541"/>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B542" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C542"/>
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B543" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C543"/>
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B544" t="s">
-        <v>10</v>
-      </c>
-      <c r="C544"/>
+        <v>12</v>
+      </c>
+      <c r="C544" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B545" t="s">
         <v>12</v>
@@ -6397,146 +6395,144 @@
         <v>163</v>
       </c>
       <c r="B546" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C546" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B547" t="s">
-        <v>4</v>
-      </c>
-      <c r="C547" t="s">
-        <v>165</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C547"/>
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B548" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C548"/>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B549" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C549"/>
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B550" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C550"/>
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B551" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C551"/>
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B552" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C552"/>
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B553" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C553"/>
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B554" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C554"/>
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B555" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C555"/>
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B556" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C556"/>
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B557" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C557"/>
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B558" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C558"/>
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B559" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C559"/>
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B560" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C560"/>
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B561" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C561"/>
     </row>
@@ -6545,292 +6541,292 @@
         <v>166</v>
       </c>
       <c r="B562" t="s">
-        <v>12</v>
-      </c>
-      <c r="C562"/>
+        <v>4</v>
+      </c>
+      <c r="C562" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B563" t="s">
-        <v>4</v>
-      </c>
-      <c r="C563" t="s">
-        <v>168</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C563"/>
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B564" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C564"/>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B565" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C565"/>
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B566" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C566"/>
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B567" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C567"/>
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B568" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C568"/>
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B569" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C569"/>
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B570" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C570"/>
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B571" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C571"/>
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B572" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C572"/>
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B573" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C573"/>
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B574" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C574"/>
     </row>
     <row r="575">
       <c r="A575" t="s">
+        <v>168</v>
+      </c>
+      <c r="B575" t="s">
+        <v>9</v>
+      </c>
+      <c r="C575" t="s">
         <v>169</v>
       </c>
-      <c r="B575" t="s">
-        <v>8</v>
-      </c>
-      <c r="C575"/>
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B576" t="s">
-        <v>9</v>
-      </c>
-      <c r="C576" t="s">
-        <v>170</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C576"/>
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B577" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C577"/>
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B578" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C578"/>
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B579" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C579"/>
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B580" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C580"/>
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B581" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C581"/>
     </row>
     <row r="582">
       <c r="A582" t="s">
+        <v>170</v>
+      </c>
+      <c r="B582" t="s">
+        <v>8</v>
+      </c>
+      <c r="C582" t="s">
         <v>171</v>
       </c>
-      <c r="B582" t="s">
-        <v>7</v>
-      </c>
-      <c r="C582"/>
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B583" t="s">
-        <v>8</v>
-      </c>
-      <c r="C583" t="s">
-        <v>172</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C583"/>
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B584" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C584"/>
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B585" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C585"/>
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B586" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C586"/>
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B587" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C587"/>
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B588" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C588"/>
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B589" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C589"/>
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B590" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C590"/>
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B591" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C591"/>
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B592" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C592"/>
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B593" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C593"/>
     </row>
@@ -6839,27 +6835,29 @@
         <v>173</v>
       </c>
       <c r="B594" t="s">
-        <v>12</v>
-      </c>
-      <c r="C594"/>
+        <v>4</v>
+      </c>
+      <c r="C594" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
+        <v>173</v>
+      </c>
+      <c r="B595" t="s">
+        <v>4</v>
+      </c>
+      <c r="C595" t="s">
         <v>174</v>
-      </c>
-      <c r="B595" t="s">
-        <v>4</v>
-      </c>
-      <c r="C595" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B596" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C596" t="s">
         <v>175</v>
@@ -6867,39 +6865,39 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B597" t="s">
-        <v>5</v>
-      </c>
-      <c r="C597" t="s">
-        <v>176</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C597"/>
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B598" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C598"/>
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B599" t="s">
-        <v>7</v>
-      </c>
-      <c r="C599"/>
+        <v>8</v>
+      </c>
+      <c r="C599" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B600" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C600" t="s">
         <v>177</v>
@@ -6907,7 +6905,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B601" t="s">
         <v>9</v>
@@ -6918,7 +6916,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B602" t="s">
         <v>9</v>
@@ -6929,101 +6927,101 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B603" t="s">
-        <v>9</v>
-      </c>
-      <c r="C603" t="s">
-        <v>180</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C603"/>
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B604" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C604"/>
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B605" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C605"/>
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B606" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C606"/>
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B607" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C607"/>
     </row>
     <row r="608">
       <c r="A608" t="s">
+        <v>180</v>
+      </c>
+      <c r="B608" t="s">
+        <v>7</v>
+      </c>
+      <c r="C608" t="s">
         <v>181</v>
       </c>
-      <c r="B608" t="s">
-        <v>6</v>
-      </c>
-      <c r="C608"/>
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B609" t="s">
-        <v>7</v>
-      </c>
-      <c r="C609" t="s">
-        <v>182</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C609"/>
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B610" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C610"/>
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B611" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C611"/>
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B612" t="s">
-        <v>10</v>
-      </c>
-      <c r="C612"/>
+        <v>12</v>
+      </c>
+      <c r="C612" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B613" t="s">
         <v>12</v>
@@ -8278,69 +8276,71 @@
       <c r="A746" t="s">
         <v>223</v>
       </c>
-      <c r="B746"/>
+      <c r="B746" t="s">
+        <v>4</v>
+      </c>
       <c r="C746"/>
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B747" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C747"/>
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B748" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C748"/>
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B749" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C749"/>
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B750" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C750"/>
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B751" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C751"/>
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B752" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C752"/>
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B753" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C753"/>
     </row>
@@ -8349,194 +8349,190 @@
         <v>224</v>
       </c>
       <c r="B754" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C754"/>
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B755" t="s">
-        <v>4</v>
-      </c>
-      <c r="C755" t="s">
-        <v>226</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C755"/>
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B756" t="s">
-        <v>4</v>
-      </c>
-      <c r="C756" t="s">
-        <v>227</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C756"/>
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B757" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C757"/>
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B758" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C758"/>
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B759" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C759"/>
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B760" t="s">
-        <v>8</v>
-      </c>
-      <c r="C760" t="s">
-        <v>228</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C760"/>
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B761" t="s">
-        <v>8</v>
-      </c>
-      <c r="C761" t="s">
-        <v>229</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C761"/>
     </row>
     <row r="762">
       <c r="A762" t="s">
         <v>225</v>
       </c>
       <c r="B762" t="s">
-        <v>9</v>
-      </c>
-      <c r="C762"/>
+        <v>4</v>
+      </c>
+      <c r="C762" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="s">
         <v>225</v>
       </c>
       <c r="B763" t="s">
-        <v>10</v>
-      </c>
-      <c r="C763"/>
+        <v>4</v>
+      </c>
+      <c r="C763" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="s">
         <v>225</v>
       </c>
       <c r="B764" t="s">
-        <v>12</v>
-      </c>
-      <c r="C764" t="s">
-        <v>230</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C764"/>
     </row>
     <row r="765">
       <c r="A765" t="s">
         <v>225</v>
       </c>
       <c r="B765" t="s">
-        <v>12</v>
-      </c>
-      <c r="C765" t="s">
-        <v>231</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C765"/>
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B766" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C766"/>
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B767" t="s">
-        <v>5</v>
-      </c>
-      <c r="C767"/>
+        <v>8</v>
+      </c>
+      <c r="C767" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B768" t="s">
-        <v>6</v>
-      </c>
-      <c r="C768"/>
+        <v>8</v>
+      </c>
+      <c r="C768" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B769" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C769"/>
     </row>
     <row r="770">
       <c r="A770" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B770" t="s">
-        <v>8</v>
-      </c>
-      <c r="C770" t="s">
-        <v>233</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C770"/>
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B771" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C771" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B772" t="s">
-        <v>9</v>
-      </c>
-      <c r="C772"/>
+        <v>12</v>
+      </c>
+      <c r="C772" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="s">
         <v>232</v>
       </c>
       <c r="B773" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C773"/>
     </row>
@@ -8545,79 +8541,77 @@
         <v>232</v>
       </c>
       <c r="B774" t="s">
-        <v>12</v>
-      </c>
-      <c r="C774" t="s">
-        <v>235</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C774"/>
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B775" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C775"/>
     </row>
     <row r="776">
       <c r="A776" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B776" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C776"/>
     </row>
     <row r="777">
       <c r="A777" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B777" t="s">
-        <v>6</v>
-      </c>
-      <c r="C777"/>
+        <v>8</v>
+      </c>
+      <c r="C777" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B778" t="s">
-        <v>7</v>
-      </c>
-      <c r="C778"/>
+        <v>8</v>
+      </c>
+      <c r="C778" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B779" t="s">
-        <v>8</v>
-      </c>
-      <c r="C779" t="s">
-        <v>237</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C779"/>
     </row>
     <row r="780">
       <c r="A780" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B780" t="s">
-        <v>8</v>
-      </c>
-      <c r="C780" t="s">
-        <v>237</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C780"/>
     </row>
     <row r="781">
       <c r="A781" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B781" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C781" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="782">
@@ -8625,54 +8619,46 @@
         <v>236</v>
       </c>
       <c r="B782" t="s">
-        <v>8</v>
-      </c>
-      <c r="C782" t="s">
-        <v>239</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C782"/>
     </row>
     <row r="783">
       <c r="A783" t="s">
         <v>236</v>
       </c>
       <c r="B783" t="s">
-        <v>8</v>
-      </c>
-      <c r="C783" t="s">
-        <v>240</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C783"/>
     </row>
     <row r="784">
       <c r="A784" t="s">
         <v>236</v>
       </c>
       <c r="B784" t="s">
-        <v>9</v>
-      </c>
-      <c r="C784" t="s">
-        <v>241</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C784"/>
     </row>
     <row r="785">
       <c r="A785" t="s">
         <v>236</v>
       </c>
       <c r="B785" t="s">
-        <v>9</v>
-      </c>
-      <c r="C785" t="s">
-        <v>242</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C785"/>
     </row>
     <row r="786">
       <c r="A786" t="s">
         <v>236</v>
       </c>
       <c r="B786" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C786" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="787">
@@ -8680,10 +8666,10 @@
         <v>236</v>
       </c>
       <c r="B787" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C787" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="788">
@@ -8691,10 +8677,10 @@
         <v>236</v>
       </c>
       <c r="B788" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C788" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="789">
@@ -8702,79 +8688,93 @@
         <v>236</v>
       </c>
       <c r="B789" t="s">
-        <v>10</v>
-      </c>
-      <c r="C789"/>
+        <v>8</v>
+      </c>
+      <c r="C789" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="s">
         <v>236</v>
       </c>
       <c r="B790" t="s">
-        <v>12</v>
-      </c>
-      <c r="C790"/>
+        <v>8</v>
+      </c>
+      <c r="C790" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B791" t="s">
-        <v>4</v>
-      </c>
-      <c r="C791"/>
+        <v>9</v>
+      </c>
+      <c r="C791" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B792" t="s">
-        <v>5</v>
-      </c>
-      <c r="C792"/>
+        <v>9</v>
+      </c>
+      <c r="C792" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B793" t="s">
-        <v>6</v>
-      </c>
-      <c r="C793"/>
+        <v>9</v>
+      </c>
+      <c r="C793" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B794" t="s">
-        <v>7</v>
-      </c>
-      <c r="C794"/>
+        <v>9</v>
+      </c>
+      <c r="C794" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B795" t="s">
-        <v>8</v>
-      </c>
-      <c r="C795"/>
+        <v>9</v>
+      </c>
+      <c r="C795" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B796" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C796"/>
     </row>
     <row r="797">
       <c r="A797" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B797" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C797"/>
     </row>
@@ -8783,70 +8783,70 @@
         <v>246</v>
       </c>
       <c r="B798" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C798"/>
     </row>
     <row r="799">
       <c r="A799" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B799" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C799"/>
     </row>
     <row r="800">
       <c r="A800" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B800" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C800"/>
     </row>
     <row r="801">
       <c r="A801" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B801" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C801"/>
     </row>
     <row r="802">
       <c r="A802" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B802" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C802"/>
     </row>
     <row r="803">
       <c r="A803" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B803" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C803"/>
     </row>
     <row r="804">
       <c r="A804" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B804" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C804"/>
     </row>
     <row r="805">
       <c r="A805" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B805" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C805"/>
     </row>
@@ -8855,70 +8855,70 @@
         <v>247</v>
       </c>
       <c r="B806" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C806"/>
     </row>
     <row r="807">
       <c r="A807" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B807" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C807"/>
     </row>
     <row r="808">
       <c r="A808" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B808" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C808"/>
     </row>
     <row r="809">
       <c r="A809" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B809" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C809"/>
     </row>
     <row r="810">
       <c r="A810" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B810" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C810"/>
     </row>
     <row r="811">
       <c r="A811" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B811" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C811"/>
     </row>
     <row r="812">
       <c r="A812" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B812" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C812"/>
     </row>
     <row r="813">
       <c r="A813" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B813" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C813"/>
     </row>
@@ -8927,77 +8927,63 @@
         <v>248</v>
       </c>
       <c r="B814" t="s">
-        <v>12</v>
-      </c>
-      <c r="C814" t="s">
-        <v>249</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C814"/>
     </row>
     <row r="815">
       <c r="A815" t="s">
         <v>248</v>
       </c>
       <c r="B815" t="s">
-        <v>12</v>
-      </c>
-      <c r="C815" t="s">
-        <v>250</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C815"/>
     </row>
     <row r="816">
       <c r="A816" t="s">
         <v>248</v>
       </c>
       <c r="B816" t="s">
-        <v>12</v>
-      </c>
-      <c r="C816" t="s">
-        <v>251</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C816"/>
     </row>
     <row r="817">
       <c r="A817" t="s">
         <v>248</v>
       </c>
       <c r="B817" t="s">
-        <v>12</v>
-      </c>
-      <c r="C817" t="s">
-        <v>252</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C817"/>
     </row>
     <row r="818">
       <c r="A818" t="s">
         <v>248</v>
       </c>
       <c r="B818" t="s">
-        <v>12</v>
-      </c>
-      <c r="C818" t="s">
-        <v>253</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C818"/>
     </row>
     <row r="819">
       <c r="A819" t="s">
         <v>248</v>
       </c>
       <c r="B819" t="s">
-        <v>12</v>
-      </c>
-      <c r="C819" t="s">
-        <v>254</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C819"/>
     </row>
     <row r="820">
       <c r="A820" t="s">
         <v>248</v>
       </c>
       <c r="B820" t="s">
-        <v>12</v>
-      </c>
-      <c r="C820" t="s">
-        <v>255</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C820"/>
     </row>
     <row r="821">
       <c r="A821" t="s">
@@ -9007,82 +8993,92 @@
         <v>12</v>
       </c>
       <c r="C821" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B822" t="s">
-        <v>4</v>
-      </c>
-      <c r="C822"/>
+        <v>12</v>
+      </c>
+      <c r="C822" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B823" t="s">
-        <v>5</v>
-      </c>
-      <c r="C823"/>
+        <v>12</v>
+      </c>
+      <c r="C823" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B824" t="s">
-        <v>6</v>
-      </c>
-      <c r="C824"/>
+        <v>12</v>
+      </c>
+      <c r="C824" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B825" t="s">
-        <v>7</v>
-      </c>
-      <c r="C825"/>
+        <v>12</v>
+      </c>
+      <c r="C825" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B826" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C826" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B827" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C827" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B828" t="s">
-        <v>9</v>
-      </c>
-      <c r="C828"/>
+        <v>12</v>
+      </c>
+      <c r="C828" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" t="s">
         <v>256</v>
       </c>
       <c r="B829" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C829"/>
     </row>
@@ -9091,70 +9087,74 @@
         <v>256</v>
       </c>
       <c r="B830" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C830"/>
     </row>
     <row r="831">
       <c r="A831" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B831" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C831"/>
     </row>
     <row r="832">
       <c r="A832" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B832" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C832"/>
     </row>
     <row r="833">
       <c r="A833" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B833" t="s">
-        <v>6</v>
-      </c>
-      <c r="C833"/>
+        <v>8</v>
+      </c>
+      <c r="C833" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B834" t="s">
-        <v>7</v>
-      </c>
-      <c r="C834"/>
+        <v>8</v>
+      </c>
+      <c r="C834" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B835" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C835"/>
     </row>
     <row r="836">
       <c r="A836" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B836" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C836"/>
     </row>
     <row r="837">
       <c r="A837" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B837" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C837"/>
     </row>
@@ -9163,74 +9163,70 @@
         <v>259</v>
       </c>
       <c r="B838" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C838"/>
     </row>
     <row r="839">
       <c r="A839" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B839" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C839"/>
     </row>
     <row r="840">
       <c r="A840" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B840" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C840"/>
     </row>
     <row r="841">
       <c r="A841" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B841" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C841"/>
     </row>
     <row r="842">
       <c r="A842" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B842" t="s">
-        <v>7</v>
-      </c>
-      <c r="C842" t="s">
-        <v>261</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C842"/>
     </row>
     <row r="843">
       <c r="A843" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B843" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C843"/>
     </row>
     <row r="844">
       <c r="A844" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B844" t="s">
-        <v>9</v>
-      </c>
-      <c r="C844" t="s">
-        <v>262</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C844"/>
     </row>
     <row r="845">
       <c r="A845" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B845" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C845"/>
     </row>
@@ -9239,43 +9235,37 @@
         <v>260</v>
       </c>
       <c r="B846" t="s">
-        <v>12</v>
-      </c>
-      <c r="C846" t="s">
-        <v>263</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C846"/>
     </row>
     <row r="847">
       <c r="A847" t="s">
         <v>260</v>
       </c>
       <c r="B847" t="s">
-        <v>12</v>
-      </c>
-      <c r="C847" t="s">
-        <v>264</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C847"/>
     </row>
     <row r="848">
       <c r="A848" t="s">
         <v>260</v>
       </c>
       <c r="B848" t="s">
-        <v>12</v>
-      </c>
-      <c r="C848" t="s">
-        <v>265</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C848"/>
     </row>
     <row r="849">
       <c r="A849" t="s">
         <v>260</v>
       </c>
       <c r="B849" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C849" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="850">
@@ -9283,21 +9273,19 @@
         <v>260</v>
       </c>
       <c r="B850" t="s">
-        <v>12</v>
-      </c>
-      <c r="C850" t="s">
-        <v>267</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C850"/>
     </row>
     <row r="851">
       <c r="A851" t="s">
         <v>260</v>
       </c>
       <c r="B851" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C851" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="852">
@@ -9305,11 +9293,9 @@
         <v>260</v>
       </c>
       <c r="B852" t="s">
-        <v>12</v>
-      </c>
-      <c r="C852" t="s">
-        <v>269</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C852"/>
     </row>
     <row r="853">
       <c r="A853" t="s">
@@ -9319,7 +9305,7 @@
         <v>12</v>
       </c>
       <c r="C853" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="854">
@@ -9330,7 +9316,7 @@
         <v>12</v>
       </c>
       <c r="C854" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="855">
@@ -9341,124 +9327,201 @@
         <v>12</v>
       </c>
       <c r="C855" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B856" t="s">
-        <v>4</v>
-      </c>
-      <c r="C856"/>
+        <v>12</v>
+      </c>
+      <c r="C856" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B857" t="s">
-        <v>5</v>
-      </c>
-      <c r="C857"/>
+        <v>12</v>
+      </c>
+      <c r="C857" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B858" t="s">
-        <v>6</v>
-      </c>
-      <c r="C858"/>
+        <v>12</v>
+      </c>
+      <c r="C858" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B859" t="s">
-        <v>7</v>
-      </c>
-      <c r="C859"/>
+        <v>12</v>
+      </c>
+      <c r="C859" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B860" t="s">
-        <v>8</v>
-      </c>
-      <c r="C860"/>
+        <v>12</v>
+      </c>
+      <c r="C860" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B861" t="s">
-        <v>9</v>
-      </c>
-      <c r="C861"/>
+        <v>12</v>
+      </c>
+      <c r="C861" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B862" t="s">
-        <v>10</v>
-      </c>
-      <c r="C862"/>
+        <v>12</v>
+      </c>
+      <c r="C862" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" t="s">
         <v>273</v>
       </c>
       <c r="B863" t="s">
-        <v>12</v>
-      </c>
-      <c r="C863" t="s">
-        <v>12</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C863"/>
     </row>
     <row r="864">
       <c r="A864" t="s">
         <v>273</v>
       </c>
       <c r="B864" t="s">
-        <v>12</v>
-      </c>
-      <c r="C864" t="s">
-        <v>12</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C864"/>
     </row>
     <row r="865">
       <c r="A865" t="s">
         <v>273</v>
       </c>
       <c r="B865" t="s">
-        <v>12</v>
-      </c>
-      <c r="C865" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C865"/>
     </row>
     <row r="866">
       <c r="A866" t="s">
         <v>273</v>
       </c>
       <c r="B866" t="s">
-        <v>12</v>
-      </c>
-      <c r="C866" t="s">
-        <v>12</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C866"/>
     </row>
     <row r="867">
       <c r="A867" t="s">
         <v>273</v>
       </c>
       <c r="B867" t="s">
-        <v>12</v>
-      </c>
-      <c r="C867" t="s">
+        <v>8</v>
+      </c>
+      <c r="C867"/>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>273</v>
+      </c>
+      <c r="B868" t="s">
+        <v>9</v>
+      </c>
+      <c r="C868"/>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>273</v>
+      </c>
+      <c r="B869" t="s">
+        <v>10</v>
+      </c>
+      <c r="C869"/>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>273</v>
+      </c>
+      <c r="B870" t="s">
+        <v>12</v>
+      </c>
+      <c r="C870" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>273</v>
+      </c>
+      <c r="B871" t="s">
+        <v>12</v>
+      </c>
+      <c r="C871" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>273</v>
+      </c>
+      <c r="B872" t="s">
+        <v>12</v>
+      </c>
+      <c r="C872" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>273</v>
+      </c>
+      <c r="B873" t="s">
+        <v>12</v>
+      </c>
+      <c r="C873" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>273</v>
+      </c>
+      <c r="B874" t="s">
+        <v>12</v>
+      </c>
+      <c r="C874" t="s">
         <v>12</v>
       </c>
     </row>
